--- a/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>24.37140816657663</v>
+      </c>
+      <c r="C2">
+        <v>13.3595805886947</v>
+      </c>
+      <c r="D2">
+        <v>7.152843901406228</v>
+      </c>
+      <c r="E2">
+        <v>6.673350722787048</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.078520639200652</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>7.34993418621091</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>64.26753560790634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>22.52458410476229</v>
+      </c>
+      <c r="C3">
+        <v>12.31888141644414</v>
+      </c>
+      <c r="D3">
+        <v>6.614441222542319</v>
+      </c>
+      <c r="E3">
+        <v>6.575704178496239</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.097212243399782</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>7.113954070167128</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>60.38564930896785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>21.45189954136437</v>
+      </c>
+      <c r="C4">
+        <v>11.66078599645675</v>
+      </c>
+      <c r="D4">
+        <v>6.277295870803219</v>
+      </c>
+      <c r="E4">
+        <v>6.517957254374538</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.108747929497146</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>6.974576589469715</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>57.95387048195668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>21.03620799425412</v>
+      </c>
+      <c r="C5">
+        <v>11.38734795118321</v>
+      </c>
+      <c r="D5">
+        <v>6.157286196808408</v>
+      </c>
+      <c r="E5">
+        <v>6.494907089615154</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.113474624183988</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6.919124306273209</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>56.95033319520236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>20.96699953384637</v>
+      </c>
+      <c r="C6">
+        <v>11.34161397998208</v>
+      </c>
+      <c r="D6">
+        <v>6.137269939200751</v>
+      </c>
+      <c r="E6">
+        <v>6.491106803170499</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.114261340073134</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6.90999677566728</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>56.78293109357631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>21.44630571878837</v>
+      </c>
+      <c r="C7">
+        <v>11.65712016614247</v>
+      </c>
+      <c r="D7">
+        <v>6.275683332562282</v>
+      </c>
+      <c r="E7">
+        <v>6.517644528718384</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.108811557421438</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>6.97382333924101</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>57.94038764812191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>23.74079976189639</v>
+      </c>
+      <c r="C8">
+        <v>13.00441737829678</v>
+      </c>
+      <c r="D8">
+        <v>6.969791073770085</v>
+      </c>
+      <c r="E8">
+        <v>6.639176305879552</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.08496037958728</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>7.26739356649224</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>62.93872471735269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>28.20221118692468</v>
+      </c>
+      <c r="C9">
+        <v>15.51950545718142</v>
+      </c>
+      <c r="D9">
+        <v>8.249935279465777</v>
+      </c>
+      <c r="E9">
+        <v>6.899022730388565</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.038061388858655</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>7.889787918268216</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>72.39545272749996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>31.39659567541225</v>
+      </c>
+      <c r="C10">
+        <v>17.33282777476749</v>
+      </c>
+      <c r="D10">
+        <v>9.148187576309461</v>
+      </c>
+      <c r="E10">
+        <v>7.110129857141627</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.002489547364898</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>8.382012448851576</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>79.21932349441401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>32.84878403230355</v>
+      </c>
+      <c r="C11">
+        <v>18.16333643679081</v>
+      </c>
+      <c r="D11">
+        <v>9.552174977666482</v>
+      </c>
+      <c r="E11">
+        <v>7.212750937081259</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.985748651087647</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>8.676767747072422</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>82.32788350644964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>33.40055856470749</v>
+      </c>
+      <c r="C12">
+        <v>18.48012276211377</v>
+      </c>
+      <c r="D12">
+        <v>9.704994969897509</v>
+      </c>
+      <c r="E12">
+        <v>7.252811246187369</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.97929305637325</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>8.813827817866473</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>83.50941085623111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>33.28160262797002</v>
+      </c>
+      <c r="C13">
+        <v>18.41176691791032</v>
+      </c>
+      <c r="D13">
+        <v>9.672080036503507</v>
+      </c>
+      <c r="E13">
+        <v>7.244125309835386</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.980689234524484</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>8.784311124838636</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>83.25467953218509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>32.89412785994777</v>
+      </c>
+      <c r="C14">
+        <v>18.18934267664854</v>
+      </c>
+      <c r="D14">
+        <v>9.564747402704549</v>
+      </c>
+      <c r="E14">
+        <v>7.216020950969646</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.985220116045975</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>8.68804529910968</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>82.42497466868028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>32.65710071881849</v>
+      </c>
+      <c r="C15">
+        <v>18.05345108410508</v>
+      </c>
+      <c r="D15">
+        <v>9.498999442678766</v>
+      </c>
+      <c r="E15">
+        <v>7.198971287119756</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.987979044089635</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>8.629065632661385</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.91745976683038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>31.30183015550377</v>
+      </c>
+      <c r="C16">
+        <v>17.27878256742578</v>
+      </c>
+      <c r="D16">
+        <v>9.121732950336852</v>
+      </c>
+      <c r="E16">
+        <v>7.103575832160394</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.003569517919835</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>8.36694973125379</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>79.01655382459991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>30.47141624651578</v>
+      </c>
+      <c r="C17">
+        <v>16.80591857433</v>
+      </c>
+      <c r="D17">
+        <v>8.889424467726617</v>
+      </c>
+      <c r="E17">
+        <v>7.046898832995375</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.012968077919499</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>8.236090318511334</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>77.24037285866852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>29.99354549887555</v>
+      </c>
+      <c r="C18">
+        <v>16.53435975861252</v>
+      </c>
+      <c r="D18">
+        <v>8.755333979562215</v>
+      </c>
+      <c r="E18">
+        <v>7.014901084855023</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.018323881129418</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>8.161742464491864</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>76.21888570151344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>29.83165403542685</v>
+      </c>
+      <c r="C19">
+        <v>16.44244805153362</v>
+      </c>
+      <c r="D19">
+        <v>8.709838773145602</v>
+      </c>
+      <c r="E19">
+        <v>7.00416392790659</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.020129612154005</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>8.136719822448663</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>75.87295326141324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>30.55982730261836</v>
+      </c>
+      <c r="C20">
+        <v>16.85620284557018</v>
+      </c>
+      <c r="D20">
+        <v>8.914199803572023</v>
+      </c>
+      <c r="E20">
+        <v>7.052868358165912</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.011972988002491</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>8.249923548947011</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.42941390928888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>33.00786901980201</v>
+      </c>
+      <c r="C21">
+        <v>18.25459790690536</v>
+      </c>
+      <c r="D21">
+        <v>9.596273243761685</v>
+      </c>
+      <c r="E21">
+        <v>7.224240917770129</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.983892776514795</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>8.716322876806661</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>82.66852400924553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>34.62008567577735</v>
+      </c>
+      <c r="C22">
+        <v>19.18292150052726</v>
+      </c>
+      <c r="D22">
+        <v>10.0414562536131</v>
+      </c>
+      <c r="E22">
+        <v>7.343416466114276</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.964838566270978</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>9.115427017555795</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>86.1208670292385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>33.75765647538294</v>
+      </c>
+      <c r="C23">
+        <v>18.68552779581578</v>
+      </c>
+      <c r="D23">
+        <v>9.80370092340358</v>
+      </c>
+      <c r="E23">
+        <v>7.279048527354004</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.975087165617883</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>8.902330264734658</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>84.27410911729667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>30.5198582226696</v>
+      </c>
+      <c r="C24">
+        <v>16.83346850716927</v>
+      </c>
+      <c r="D24">
+        <v>8.90300057126832</v>
+      </c>
+      <c r="E24">
+        <v>7.050167726632085</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.01242301372144</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>8.243666810296052</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.343949766324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>27.01455005957924</v>
+      </c>
+      <c r="C25">
+        <v>14.84882194316315</v>
+      </c>
+      <c r="D25">
+        <v>7.912323881486317</v>
+      </c>
+      <c r="E25">
+        <v>6.825788338672774</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.050856209358224</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>7.715889338577972</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>69.86708119573088</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.37140816657663</v>
+        <v>12.49286688881221</v>
       </c>
       <c r="C2">
-        <v>13.3595805886947</v>
+        <v>6.133727931847074</v>
       </c>
       <c r="D2">
-        <v>7.152843901406228</v>
+        <v>8.923047703299121</v>
       </c>
       <c r="E2">
-        <v>6.673350722787048</v>
+        <v>8.04693271203478</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.078520639200652</v>
+        <v>55.98824605705305</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>17.12011802698404</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>28.75921564109009</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.012712829075141</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.283882189128</v>
       </c>
       <c r="L2">
-        <v>7.34993418621091</v>
+        <v>7.858188192619675</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.80839263375044</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>64.26753560790634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.52458410476229</v>
+        <v>11.84463672085855</v>
       </c>
       <c r="C3">
-        <v>12.31888141644414</v>
+        <v>5.76600497208655</v>
       </c>
       <c r="D3">
-        <v>6.614441222542319</v>
+        <v>8.759597804617785</v>
       </c>
       <c r="E3">
-        <v>6.575704178496239</v>
+        <v>8.04999480638976</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.097212243399782</v>
+        <v>54.9451763302861</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>17.0053828919192</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>28.52575578353342</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.01294432657157</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.789594821058099</v>
       </c>
       <c r="L3">
-        <v>7.113954070167128</v>
+        <v>7.803562882822058</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.6026788755846</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>60.38564930896785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45189954136437</v>
+        <v>11.43640461659418</v>
       </c>
       <c r="C4">
-        <v>11.66078599645675</v>
+        <v>5.529451277211046</v>
       </c>
       <c r="D4">
-        <v>6.277295870803219</v>
+        <v>8.662568463414203</v>
       </c>
       <c r="E4">
-        <v>6.517957254374538</v>
+        <v>8.054389669665721</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.108747929497146</v>
+        <v>54.32681169147304</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>16.94210531735854</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>28.39451522657668</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.013213316195673</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.480139884383684</v>
       </c>
       <c r="L4">
-        <v>6.974576589469715</v>
+        <v>7.773349285110576</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.48041400695341</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>57.95387048195668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03620799425412</v>
+        <v>11.26769510732006</v>
       </c>
       <c r="C5">
-        <v>11.38734795118321</v>
+        <v>5.430345056501996</v>
       </c>
       <c r="D5">
-        <v>6.157286196808408</v>
+        <v>8.623889131073204</v>
       </c>
       <c r="E5">
-        <v>6.494907089615154</v>
+        <v>8.056801902402807</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.113474624183988</v>
+        <v>54.08042654575058</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>16.91807849515055</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>28.34400697349689</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.013353692160987</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.352713040329126</v>
       </c>
       <c r="L5">
-        <v>6.919124306273209</v>
+        <v>7.761862784560599</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.43164628387613</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>56.95033319520236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96699953384637</v>
+        <v>11.23954612082567</v>
       </c>
       <c r="C6">
-        <v>11.34161397998208</v>
+        <v>5.413725093759967</v>
       </c>
       <c r="D6">
-        <v>6.137269939200751</v>
+        <v>8.617519120545431</v>
       </c>
       <c r="E6">
-        <v>6.491106803170499</v>
+        <v>8.057239657400491</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.114261340073134</v>
+        <v>54.03985422127211</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>16.9141938252288</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>28.33579760077281</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.013378827796414</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.331479828667817</v>
       </c>
       <c r="L6">
-        <v>6.90999677566728</v>
+        <v>7.760005008475981</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.42361335354429</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>56.78293109357631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44630571878837</v>
+        <v>11.43413854641894</v>
       </c>
       <c r="C7">
-        <v>11.65712016614247</v>
+        <v>5.528125658070026</v>
       </c>
       <c r="D7">
-        <v>6.275683332562282</v>
+        <v>8.662043304247332</v>
       </c>
       <c r="E7">
-        <v>6.517644528718384</v>
+        <v>8.054419700723241</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.108811557421438</v>
+        <v>54.3234661064404</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>16.9417742181242</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>28.39382211014782</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.013215086243776</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.478426456964829</v>
       </c>
       <c r="L7">
-        <v>6.97382333924101</v>
+        <v>7.773191045217261</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.47975198091153</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>57.94038764812191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.74079976189639</v>
+        <v>12.27159577932046</v>
       </c>
       <c r="C8">
-        <v>13.00441737829678</v>
+        <v>6.009169723535872</v>
       </c>
       <c r="D8">
-        <v>6.969791073770085</v>
+        <v>8.866013616455419</v>
       </c>
       <c r="E8">
-        <v>6.639176305879552</v>
+        <v>8.047459854838991</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.08496037958728</v>
+        <v>55.62404379339012</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>17.07904301360996</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28.67616438590418</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.01276560880074</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.1147867954298</v>
       </c>
       <c r="L8">
-        <v>7.26739356649224</v>
+        <v>7.838656701570194</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.73664697471116</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>62.93872471735269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.20221118692468</v>
+        <v>13.82519378837224</v>
       </c>
       <c r="C9">
-        <v>15.51950545718142</v>
+        <v>6.867468821363225</v>
       </c>
       <c r="D9">
-        <v>8.249935279465777</v>
+        <v>9.291359946880657</v>
       </c>
       <c r="E9">
-        <v>6.899022730388565</v>
+        <v>8.054277641658505</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.038061388858655</v>
+        <v>58.34744395862812</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>17.40707154560663</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>29.32900161925749</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.012947067272096</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.39103280250763</v>
       </c>
       <c r="L9">
-        <v>7.889787918268216</v>
+        <v>7.993888462777651</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.27077459792753</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>72.39545272749996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.39659567541225</v>
+        <v>14.90491096795133</v>
       </c>
       <c r="C10">
-        <v>17.33282777476749</v>
+        <v>7.447342136863478</v>
       </c>
       <c r="D10">
-        <v>9.148187576309461</v>
+        <v>9.617958945580687</v>
       </c>
       <c r="E10">
-        <v>7.110129857141627</v>
+        <v>8.072498792597155</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.002489547364898</v>
+        <v>60.45118888293138</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>17.68665825868605</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>29.87340107482279</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.013815451204639</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.45972536542769</v>
       </c>
       <c r="L10">
-        <v>8.382012448851576</v>
+        <v>8.124927641710316</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.67947836937639</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>79.21932349441401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.84878403230355</v>
+        <v>15.38171548414267</v>
       </c>
       <c r="C11">
-        <v>18.16333643679081</v>
+        <v>7.700498773703153</v>
       </c>
       <c r="D11">
-        <v>9.552174977666482</v>
+        <v>9.769340130578374</v>
       </c>
       <c r="E11">
-        <v>7.212750937081259</v>
+        <v>8.083825223974502</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.985748651087647</v>
+        <v>61.43024242723424</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>17.82282661795361</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>30.13607144114864</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.014392173536622</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.92325820433851</v>
       </c>
       <c r="L11">
-        <v>8.676767747072422</v>
+        <v>8.188362672925802</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.86852048747592</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>82.32788350644964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.40055856470749</v>
+        <v>15.56015643600629</v>
       </c>
       <c r="C12">
-        <v>18.48012276211377</v>
+        <v>7.794871686811054</v>
       </c>
       <c r="D12">
-        <v>9.704994969897509</v>
+        <v>9.82704978266784</v>
       </c>
       <c r="E12">
-        <v>7.252811246187369</v>
+        <v>8.088565639278302</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.97929305637325</v>
+        <v>61.80414740076918</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>17.87573259175666</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>30.23777799050507</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.014638778648135</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.09561009215876</v>
       </c>
       <c r="L12">
-        <v>8.813827817866473</v>
+        <v>8.21294483576915</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.94052399663637</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>83.50941085623111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.28160262797002</v>
+        <v>15.52182055379664</v>
       </c>
       <c r="C13">
-        <v>18.41176691791032</v>
+        <v>7.774612502146155</v>
       </c>
       <c r="D13">
-        <v>9.672080036503507</v>
+        <v>9.814604124269607</v>
       </c>
       <c r="E13">
-        <v>7.244125309835386</v>
+        <v>8.08752439260237</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.980689234524484</v>
+        <v>61.72347971214599</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>17.86427783069049</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>30.21577277728968</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.014584377272156</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.05863112541474</v>
       </c>
       <c r="L13">
-        <v>8.784311124838636</v>
+        <v>8.207625511383387</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.92499863494213</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>83.25467953218509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.89412785994777</v>
+        <v>15.39643850242304</v>
       </c>
       <c r="C14">
-        <v>18.18934267664854</v>
+        <v>7.708292561162692</v>
       </c>
       <c r="D14">
-        <v>9.564747402704549</v>
+        <v>9.77408032140114</v>
       </c>
       <c r="E14">
-        <v>7.216020950969646</v>
+        <v>8.084206089174817</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.985220116045975</v>
+        <v>61.46094048927539</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>17.82715203200394</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>30.144393558386</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.014411883660894</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.93750094261031</v>
       </c>
       <c r="L14">
-        <v>8.68804529910968</v>
+        <v>8.190373761076417</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.87443605645275</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>82.42497466868028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.65710071881849</v>
+        <v>15.31936195609909</v>
       </c>
       <c r="C15">
-        <v>18.05345108410508</v>
+        <v>7.667476567240798</v>
       </c>
       <c r="D15">
-        <v>9.498999442678766</v>
+        <v>9.74930793881054</v>
       </c>
       <c r="E15">
-        <v>7.198971287119756</v>
+        <v>8.082232755284901</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.987979044089635</v>
+        <v>61.30053905455869</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>17.80458770815287</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>30.10096573143137</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.014309966449273</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.8628936499222</v>
       </c>
       <c r="L15">
-        <v>8.629065632661385</v>
+        <v>8.179879915267241</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.84351852548509</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>81.91745976683038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.30183015550377</v>
+        <v>14.87345687667756</v>
       </c>
       <c r="C16">
-        <v>17.27878256742578</v>
+        <v>7.430586839242151</v>
       </c>
       <c r="D16">
-        <v>9.121732950336852</v>
+        <v>9.608120650097938</v>
       </c>
       <c r="E16">
-        <v>7.103575832160394</v>
+        <v>8.07182093322095</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.003569517919835</v>
+        <v>60.38764753962783</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>17.67794433352804</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>29.85654385810841</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.013781590133109</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.42898351389607</v>
       </c>
       <c r="L16">
-        <v>8.36694973125379</v>
+        <v>8.1208598750601</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.66718402208932</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>79.01655382459991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.47141624651578</v>
+        <v>14.5961868031714</v>
       </c>
       <c r="C17">
-        <v>16.80591857433</v>
+        <v>7.282564125145277</v>
       </c>
       <c r="D17">
-        <v>8.889424467726617</v>
+        <v>9.522211738496097</v>
       </c>
       <c r="E17">
-        <v>7.046898832995375</v>
+        <v>8.066221722628164</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.012968077919499</v>
+        <v>59.83324951859756</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>17.60258846054245</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>29.71050098898775</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.013505395437846</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.15705183206211</v>
       </c>
       <c r="L17">
-        <v>8.236090318511334</v>
+        <v>8.085639994459319</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.55978392997657</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>77.24037285866852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.99354549887555</v>
+        <v>14.43535765550897</v>
       </c>
       <c r="C18">
-        <v>16.53435975861252</v>
+        <v>7.196422207354463</v>
       </c>
       <c r="D18">
-        <v>8.755333979562215</v>
+        <v>9.47306461818267</v>
       </c>
       <c r="E18">
-        <v>7.014901084855023</v>
+        <v>8.063286200247449</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.018323881129418</v>
+        <v>59.51644926239895</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>17.56008814730949</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>29.62790984274654</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.013363499026593</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.99851000266557</v>
       </c>
       <c r="L18">
-        <v>8.161742464491864</v>
+        <v>8.065741775275351</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.4983055773138</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>76.21888570151344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.83165403542685</v>
+        <v>14.38067357601211</v>
       </c>
       <c r="C19">
-        <v>16.44244805153362</v>
+        <v>7.167082718054457</v>
       </c>
       <c r="D19">
-        <v>8.709838773145602</v>
+        <v>9.456470472631436</v>
       </c>
       <c r="E19">
-        <v>7.00416392790659</v>
+        <v>8.062340799841483</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.020129612154005</v>
+        <v>59.40954324874784</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>17.54584146222417</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>29.60018552954069</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.013318309028183</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.94446175346839</v>
       </c>
       <c r="L19">
-        <v>8.136719822448663</v>
+        <v>8.059065978907229</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.47754182523697</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>75.87295326141324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.55982730261836</v>
+        <v>14.62584290427734</v>
       </c>
       <c r="C20">
-        <v>16.85620284557018</v>
+        <v>7.298424972872905</v>
       </c>
       <c r="D20">
-        <v>8.914199803572023</v>
+        <v>9.531329569461459</v>
       </c>
       <c r="E20">
-        <v>7.052868358165912</v>
+        <v>8.066788169220501</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.011972988002491</v>
+        <v>59.892051563233</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>17.61052268165692</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>29.72590113214212</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.013533026810967</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.186219748386</v>
       </c>
       <c r="L20">
-        <v>8.249923548947011</v>
+        <v>8.089351946777088</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.57118652995385</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>77.42941390928888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.00786901980201</v>
+        <v>15.4333239095619</v>
       </c>
       <c r="C21">
-        <v>18.25459790690536</v>
+        <v>7.727812506683988</v>
       </c>
       <c r="D21">
-        <v>9.596273243761685</v>
+        <v>9.785972833424612</v>
       </c>
       <c r="E21">
-        <v>7.224240917770129</v>
+        <v>8.085168386298923</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.983892776514795</v>
+        <v>61.53796886856649</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>17.8380199448373</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>30.16529794696543</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.01446176571679</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.97316544140486</v>
       </c>
       <c r="L21">
-        <v>8.716322876806661</v>
+        <v>8.195425712150868</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.8892764089712</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>82.66852400924553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.62008567577735</v>
+        <v>15.95289821988925</v>
       </c>
       <c r="C22">
-        <v>19.18292150052726</v>
+        <v>7.999766737538085</v>
       </c>
       <c r="D22">
-        <v>10.0414562536131</v>
+        <v>9.954634204709354</v>
       </c>
       <c r="E22">
-        <v>7.343416466114276</v>
+        <v>8.09981900902323</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.964838566270978</v>
+        <v>62.63209569160566</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>17.99454998078524</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>30.46555998842439</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.01523434189911</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.46899476034758</v>
       </c>
       <c r="L22">
-        <v>9.115427017555795</v>
+        <v>8.268024790536902</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.09958853755056</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>86.1208670292385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.75765647538294</v>
+        <v>15.67478550641454</v>
       </c>
       <c r="C23">
-        <v>18.68552779581578</v>
+        <v>7.855399787002693</v>
       </c>
       <c r="D23">
-        <v>9.80370092340358</v>
+        <v>9.864417083582572</v>
       </c>
       <c r="E23">
-        <v>7.279048527354004</v>
+        <v>8.091753298440965</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.975087165617883</v>
+        <v>62.04645086417875</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>17.91027158665172</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>30.30407927531333</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.014806098857338</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.20602670592064</v>
       </c>
       <c r="L23">
-        <v>8.902330264734658</v>
+        <v>8.228973994131835</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.98712837285339</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>84.27410911729667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.5198582226696</v>
+        <v>14.61243980895481</v>
       </c>
       <c r="C24">
-        <v>16.83346850716927</v>
+        <v>7.291257530941303</v>
       </c>
       <c r="D24">
-        <v>8.90300057126832</v>
+        <v>9.527206639508682</v>
       </c>
       <c r="E24">
-        <v>7.050167726632085</v>
+        <v>8.066531196648338</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.01242301372144</v>
+        <v>59.86546114433276</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>17.60693306127317</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>29.71893446346462</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.013520482208317</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.17303980611841</v>
       </c>
       <c r="L24">
-        <v>8.243666810296052</v>
+        <v>8.087672683264413</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.56603057918908</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>77.343949766324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.01455005957924</v>
+        <v>13.4153110575623</v>
       </c>
       <c r="C25">
-        <v>14.84882194316315</v>
+        <v>6.644287974188631</v>
       </c>
       <c r="D25">
-        <v>7.912323881486317</v>
+        <v>9.173721616537691</v>
       </c>
       <c r="E25">
-        <v>6.825788338672774</v>
+        <v>8.050167907193135</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.050856209358224</v>
+        <v>57.59246346980144</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>17.31175284710124</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>29.1413315751415</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.012775742795362</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.99247553437397</v>
       </c>
       <c r="L25">
-        <v>7.715889338577972</v>
+        <v>7.948954368670988</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.12326505741771</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>69.86708119573088</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.49286688881221</v>
+        <v>16.23365402659878</v>
       </c>
       <c r="C2">
-        <v>6.133727931847074</v>
+        <v>3.86408143130137</v>
       </c>
       <c r="D2">
-        <v>8.923047703299121</v>
+        <v>13.45272583510759</v>
       </c>
       <c r="E2">
-        <v>8.04693271203478</v>
+        <v>13.43235276683116</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>55.98824605705305</v>
+        <v>68.88191477822151</v>
       </c>
       <c r="H2">
-        <v>17.12011802698404</v>
+        <v>24.30064963152257</v>
       </c>
       <c r="I2">
-        <v>28.75921564109009</v>
+        <v>39.08158368773766</v>
       </c>
       <c r="J2">
-        <v>5.012712829075141</v>
+        <v>8.211349561222056</v>
       </c>
       <c r="K2">
-        <v>10.283882189128</v>
+        <v>14.01310740033882</v>
       </c>
       <c r="L2">
-        <v>7.858188192619675</v>
+        <v>13.10723826090272</v>
       </c>
       <c r="M2">
-        <v>10.80839263375044</v>
+        <v>17.97745759718419</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.84463672085855</v>
+        <v>16.16842270184804</v>
       </c>
       <c r="C3">
-        <v>5.76600497208655</v>
+        <v>3.681421306795692</v>
       </c>
       <c r="D3">
-        <v>8.759597804617785</v>
+        <v>13.45544950731072</v>
       </c>
       <c r="E3">
-        <v>8.04999480638976</v>
+        <v>13.4523381950136</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>54.9451763302861</v>
+        <v>68.75018976283606</v>
       </c>
       <c r="H3">
-        <v>17.0053828919192</v>
+        <v>24.31205263255582</v>
       </c>
       <c r="I3">
-        <v>28.52575578353342</v>
+        <v>39.08417458963331</v>
       </c>
       <c r="J3">
-        <v>5.01294432657157</v>
+        <v>8.211500009759707</v>
       </c>
       <c r="K3">
-        <v>9.789594821058099</v>
+        <v>13.97276531667602</v>
       </c>
       <c r="L3">
-        <v>7.803562882822058</v>
+        <v>13.12495509120098</v>
       </c>
       <c r="M3">
-        <v>10.6026788755846</v>
+        <v>17.99322053149979</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.43640461659418</v>
+        <v>16.13244529166927</v>
       </c>
       <c r="C4">
-        <v>5.529451277211046</v>
+        <v>3.563592435552464</v>
       </c>
       <c r="D4">
-        <v>8.662568463414203</v>
+        <v>13.45924722181303</v>
       </c>
       <c r="E4">
-        <v>8.054389669665721</v>
+        <v>13.46580756648313</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>54.32681169147304</v>
+        <v>68.67998569267961</v>
       </c>
       <c r="H4">
-        <v>16.94210531735854</v>
+        <v>24.32191551263523</v>
       </c>
       <c r="I4">
-        <v>28.39451522657668</v>
+        <v>39.09049452836956</v>
       </c>
       <c r="J4">
-        <v>5.013213316195673</v>
+        <v>8.211620046196519</v>
       </c>
       <c r="K4">
-        <v>9.480139884383684</v>
+        <v>13.95137258553986</v>
       </c>
       <c r="L4">
-        <v>7.773349285110576</v>
+        <v>13.13745921237892</v>
       </c>
       <c r="M4">
-        <v>10.48041400695341</v>
+        <v>18.00580830433204</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.26769510732006</v>
+        <v>16.11882232567873</v>
       </c>
       <c r="C5">
-        <v>5.430345056501996</v>
+        <v>3.514175684209019</v>
       </c>
       <c r="D5">
-        <v>8.623889131073204</v>
+        <v>13.46133003658027</v>
       </c>
       <c r="E5">
-        <v>8.056801902402807</v>
+        <v>13.47159822616512</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>54.08042654575058</v>
+        <v>68.65407351516295</v>
       </c>
       <c r="H5">
-        <v>16.91807849515055</v>
+        <v>24.32665445977838</v>
       </c>
       <c r="I5">
-        <v>28.34400697349689</v>
+        <v>39.09425972148824</v>
       </c>
       <c r="J5">
-        <v>5.013353692160987</v>
+        <v>8.211675920557948</v>
       </c>
       <c r="K5">
-        <v>9.352713040329126</v>
+        <v>13.94351186609724</v>
       </c>
       <c r="L5">
-        <v>7.761862784560599</v>
+        <v>13.14296396531469</v>
       </c>
       <c r="M5">
-        <v>10.43164628387613</v>
+        <v>18.01167034728919</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.23954612082567</v>
+        <v>16.11662330911243</v>
       </c>
       <c r="C6">
-        <v>5.413725093759967</v>
+        <v>3.505886350898844</v>
       </c>
       <c r="D6">
-        <v>8.617519120545431</v>
+        <v>13.46170823119595</v>
       </c>
       <c r="E6">
-        <v>8.057239657400491</v>
+        <v>13.47257800147447</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.03985422127211</v>
+        <v>68.64993399661752</v>
       </c>
       <c r="H6">
-        <v>16.9141938252288</v>
+        <v>24.32748483276131</v>
       </c>
       <c r="I6">
-        <v>28.33579760077281</v>
+        <v>39.09495679879149</v>
       </c>
       <c r="J6">
-        <v>5.013378827796414</v>
+        <v>8.211685618827866</v>
       </c>
       <c r="K6">
-        <v>9.331479828667817</v>
+        <v>13.94225856667034</v>
       </c>
       <c r="L6">
-        <v>7.760005008475981</v>
+        <v>13.14390275151849</v>
       </c>
       <c r="M6">
-        <v>10.42361335354429</v>
+        <v>18.01268799352302</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.43413854641894</v>
+        <v>16.13225734751692</v>
       </c>
       <c r="C7">
-        <v>5.528125658070026</v>
+        <v>3.562931616130691</v>
       </c>
       <c r="D7">
-        <v>8.662043304247332</v>
+        <v>13.45927314342014</v>
       </c>
       <c r="E7">
-        <v>8.054419700723241</v>
+        <v>13.46588443881449</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>54.3234661064404</v>
+        <v>68.67962529941019</v>
       </c>
       <c r="H7">
-        <v>16.9417742181242</v>
+        <v>24.32197650938063</v>
       </c>
       <c r="I7">
-        <v>28.39382211014782</v>
+        <v>39.09054048928798</v>
       </c>
       <c r="J7">
-        <v>5.013215086243776</v>
+        <v>8.211620771557232</v>
       </c>
       <c r="K7">
-        <v>9.478426456964829</v>
+        <v>13.95126309372892</v>
       </c>
       <c r="L7">
-        <v>7.773191045217261</v>
+        <v>13.13753179401426</v>
       </c>
       <c r="M7">
-        <v>10.47975198091153</v>
+        <v>18.00588439533269</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.27159577932046</v>
+        <v>16.21032500401286</v>
       </c>
       <c r="C8">
-        <v>6.009169723535872</v>
+        <v>3.802292436424528</v>
       </c>
       <c r="D8">
-        <v>8.866013616455419</v>
+        <v>13.45322435070225</v>
       </c>
       <c r="E8">
-        <v>8.047459854838991</v>
+        <v>13.43899533469819</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>55.62404379339012</v>
+        <v>68.83428808107142</v>
       </c>
       <c r="H8">
-        <v>17.07904301360996</v>
+        <v>24.30398767481617</v>
       </c>
       <c r="I8">
-        <v>28.67616438590418</v>
+        <v>39.0814959431008</v>
       </c>
       <c r="J8">
-        <v>5.01276560880074</v>
+        <v>8.211395696657545</v>
       </c>
       <c r="K8">
-        <v>10.1147867954298</v>
+        <v>13.99850135131538</v>
       </c>
       <c r="L8">
-        <v>7.838656701570194</v>
+        <v>13.11300979818566</v>
       </c>
       <c r="M8">
-        <v>10.73664697471116</v>
+        <v>17.98228940429881</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.82519378837224</v>
+        <v>16.39509444835664</v>
       </c>
       <c r="C9">
-        <v>6.867468821363225</v>
+        <v>4.225718431087071</v>
       </c>
       <c r="D9">
-        <v>9.291359946880657</v>
+        <v>13.4581867729159</v>
       </c>
       <c r="E9">
-        <v>8.054277641658505</v>
+        <v>13.39575247078823</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>58.34744395862812</v>
+        <v>69.22168137618922</v>
       </c>
       <c r="H9">
-        <v>17.40707154560663</v>
+        <v>24.29140286956577</v>
       </c>
       <c r="I9">
-        <v>29.32900161925749</v>
+        <v>39.10124918957667</v>
       </c>
       <c r="J9">
-        <v>5.012947067272096</v>
+        <v>8.211173721480245</v>
       </c>
       <c r="K9">
-        <v>11.39103280250763</v>
+        <v>14.11755439402634</v>
       </c>
       <c r="L9">
-        <v>7.993888462777651</v>
+        <v>13.07780621976776</v>
       </c>
       <c r="M9">
-        <v>11.27077459792753</v>
+        <v>17.95906028037157</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.90491096795133</v>
+        <v>16.54919618694752</v>
       </c>
       <c r="C10">
-        <v>7.447342136863478</v>
+        <v>4.507814448541621</v>
       </c>
       <c r="D10">
-        <v>9.617958945580687</v>
+        <v>13.47202715549956</v>
       </c>
       <c r="E10">
-        <v>8.072498792597155</v>
+        <v>13.36973707172501</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>60.45118888293138</v>
+        <v>69.55664757384424</v>
       </c>
       <c r="H10">
-        <v>17.68665825868605</v>
+        <v>24.29596882994611</v>
       </c>
       <c r="I10">
-        <v>29.87340107482279</v>
+        <v>39.1385595113406</v>
       </c>
       <c r="J10">
-        <v>5.013815451204639</v>
+        <v>8.211144370695925</v>
       </c>
       <c r="K10">
-        <v>12.45972536542769</v>
+        <v>14.22056122263894</v>
       </c>
       <c r="L10">
-        <v>8.124927641710316</v>
+        <v>13.05977291102024</v>
       </c>
       <c r="M10">
-        <v>11.67947836937639</v>
+        <v>17.95597426159139</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.38171548414267</v>
+        <v>16.62305689729705</v>
       </c>
       <c r="C11">
-        <v>7.700498773703153</v>
+        <v>4.629708640932777</v>
       </c>
       <c r="D11">
-        <v>9.769340130578374</v>
+        <v>13.48052014758939</v>
       </c>
       <c r="E11">
-        <v>8.083825223974502</v>
+        <v>13.35914560206222</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>61.43024242723424</v>
+        <v>69.71972844186415</v>
       </c>
       <c r="H11">
-        <v>17.82282661795361</v>
+        <v>24.3010376993628</v>
       </c>
       <c r="I11">
-        <v>30.13607144114864</v>
+        <v>39.16046431995849</v>
       </c>
       <c r="J11">
-        <v>5.014392173536622</v>
+        <v>8.211160064218641</v>
       </c>
       <c r="K11">
-        <v>12.92325820433851</v>
+        <v>14.27065718890854</v>
       </c>
       <c r="L11">
-        <v>8.188362672925802</v>
+        <v>13.05326367136116</v>
       </c>
       <c r="M11">
-        <v>11.86852048747592</v>
+        <v>17.95758837132841</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.56015643600629</v>
+        <v>16.65154570916211</v>
       </c>
       <c r="C12">
-        <v>7.794871686811054</v>
+        <v>4.674933009882831</v>
       </c>
       <c r="D12">
-        <v>9.82704978266784</v>
+        <v>13.48405033074036</v>
       </c>
       <c r="E12">
-        <v>8.088565639278302</v>
+        <v>13.35531313530376</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>61.80414740076918</v>
+        <v>69.78299850939422</v>
       </c>
       <c r="H12">
-        <v>17.87573259175666</v>
+        <v>24.30338637459293</v>
       </c>
       <c r="I12">
-        <v>30.23777799050507</v>
+        <v>39.1694659594915</v>
       </c>
       <c r="J12">
-        <v>5.014638778648135</v>
+        <v>8.211170183289491</v>
       </c>
       <c r="K12">
-        <v>13.09561009215876</v>
+        <v>14.29007987938989</v>
       </c>
       <c r="L12">
-        <v>8.21294483576915</v>
+        <v>13.05104184091009</v>
       </c>
       <c r="M12">
-        <v>11.94052399663637</v>
+        <v>17.95863170856973</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.52182055379664</v>
+        <v>16.64538738183257</v>
       </c>
       <c r="C13">
-        <v>7.774612502146155</v>
+        <v>4.665234812918808</v>
       </c>
       <c r="D13">
-        <v>9.814604124269607</v>
+        <v>13.48327610572866</v>
       </c>
       <c r="E13">
-        <v>8.08752439260237</v>
+        <v>13.35613060334423</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>61.72347971214599</v>
+        <v>69.7693051989674</v>
       </c>
       <c r="H13">
-        <v>17.86427783069049</v>
+        <v>24.30286147428503</v>
       </c>
       <c r="I13">
-        <v>30.21577277728968</v>
+        <v>39.16749590520918</v>
       </c>
       <c r="J13">
-        <v>5.014584377272156</v>
+        <v>8.21116781823017</v>
       </c>
       <c r="K13">
-        <v>13.05863112541474</v>
+        <v>14.28587695010695</v>
       </c>
       <c r="L13">
-        <v>8.207625511383387</v>
+        <v>13.05150955013798</v>
       </c>
       <c r="M13">
-        <v>11.92499863494213</v>
+        <v>17.95838782097343</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.39643850242304</v>
+        <v>16.62539040472402</v>
       </c>
       <c r="C14">
-        <v>7.708292561162692</v>
+        <v>4.633448047955331</v>
       </c>
       <c r="D14">
-        <v>9.77408032140114</v>
+        <v>13.48080429469956</v>
       </c>
       <c r="E14">
-        <v>8.084206089174817</v>
+        <v>13.35882673211055</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>61.46094048927539</v>
+        <v>69.72490349326681</v>
       </c>
       <c r="H14">
-        <v>17.82715203200394</v>
+        <v>24.30122233079416</v>
       </c>
       <c r="I14">
-        <v>30.144393558386</v>
+        <v>39.16119074116553</v>
       </c>
       <c r="J14">
-        <v>5.014411883660894</v>
+        <v>8.211160813023545</v>
       </c>
       <c r="K14">
-        <v>12.93750094261031</v>
+        <v>14.27224611567169</v>
       </c>
       <c r="L14">
-        <v>8.190373761076417</v>
+        <v>13.05307601170289</v>
       </c>
       <c r="M14">
-        <v>11.87443605645275</v>
+        <v>17.95766555862786</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.31936195609909</v>
+        <v>16.61320867111542</v>
       </c>
       <c r="C15">
-        <v>7.667476567240798</v>
+        <v>4.613855820706897</v>
       </c>
       <c r="D15">
-        <v>9.74930793881054</v>
+        <v>13.47933108227649</v>
       </c>
       <c r="E15">
-        <v>8.082232755284901</v>
+        <v>13.36050139410466</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>61.30053905455869</v>
+        <v>69.69790269814334</v>
       </c>
       <c r="H15">
-        <v>17.80458770815287</v>
+        <v>24.30027417022474</v>
       </c>
       <c r="I15">
-        <v>30.10096573143137</v>
+        <v>39.15742060782289</v>
       </c>
       <c r="J15">
-        <v>5.014309966449273</v>
+        <v>8.211157065998359</v>
       </c>
       <c r="K15">
-        <v>12.8628936499222</v>
+        <v>14.2639553542194</v>
       </c>
       <c r="L15">
-        <v>8.179879915267241</v>
+        <v>13.05406715344246</v>
       </c>
       <c r="M15">
-        <v>11.84351852548509</v>
+        <v>17.95727936650761</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.87345687667756</v>
+        <v>16.5444430679217</v>
       </c>
       <c r="C16">
-        <v>7.430586839242151</v>
+        <v>4.499718090155847</v>
       </c>
       <c r="D16">
-        <v>9.608120650097938</v>
+        <v>13.47151617325358</v>
       </c>
       <c r="E16">
-        <v>8.07182093322095</v>
+        <v>13.37045422381759</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>60.38764753962783</v>
+        <v>69.54620320288024</v>
       </c>
       <c r="H16">
-        <v>17.67794433352804</v>
+        <v>24.29569768730893</v>
       </c>
       <c r="I16">
-        <v>29.85654385810841</v>
+        <v>39.13722702522875</v>
       </c>
       <c r="J16">
-        <v>5.013781590133109</v>
+        <v>8.211143929513618</v>
       </c>
       <c r="K16">
-        <v>12.42898351389607</v>
+        <v>14.2173513771695</v>
       </c>
       <c r="L16">
-        <v>8.1208598750601</v>
+        <v>13.06023235116051</v>
       </c>
       <c r="M16">
-        <v>11.66718402208932</v>
+        <v>17.95592934949335</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.5961868031714</v>
+        <v>16.50320560781133</v>
       </c>
       <c r="C17">
-        <v>7.282564125145277</v>
+        <v>4.428043413628933</v>
       </c>
       <c r="D17">
-        <v>9.522211738496097</v>
+        <v>13.46728341768455</v>
       </c>
       <c r="E17">
-        <v>8.066221722628164</v>
+        <v>13.37687801756688</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>59.83324951859756</v>
+        <v>69.45586517204944</v>
       </c>
       <c r="H17">
-        <v>17.60258846054245</v>
+        <v>24.29365576709078</v>
       </c>
       <c r="I17">
-        <v>29.71050098898775</v>
+        <v>39.1261005185666</v>
       </c>
       <c r="J17">
-        <v>5.013505395437846</v>
+        <v>8.211143309548467</v>
       </c>
       <c r="K17">
-        <v>12.15705183206211</v>
+        <v>14.18958147592511</v>
       </c>
       <c r="L17">
-        <v>8.085639994459319</v>
+        <v>13.0644480521371</v>
       </c>
       <c r="M17">
-        <v>11.55978392997657</v>
+        <v>17.95587286230284</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.43535765550897</v>
+        <v>16.47984206175246</v>
       </c>
       <c r="C18">
-        <v>7.196422207354463</v>
+        <v>4.386212967169356</v>
       </c>
       <c r="D18">
-        <v>9.47306461818267</v>
+        <v>13.46505575742739</v>
       </c>
       <c r="E18">
-        <v>8.063286200247449</v>
+        <v>13.38068984493889</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>59.51644926239895</v>
+        <v>69.40491412012616</v>
       </c>
       <c r="H18">
-        <v>17.56008814730949</v>
+        <v>24.29276298123677</v>
       </c>
       <c r="I18">
-        <v>29.62790984274654</v>
+        <v>39.12016525566217</v>
       </c>
       <c r="J18">
-        <v>5.013363499026593</v>
+        <v>8.211145686860471</v>
       </c>
       <c r="K18">
-        <v>11.99851000266557</v>
+        <v>14.17391454009538</v>
       </c>
       <c r="L18">
-        <v>8.065741775275351</v>
+        <v>13.06703231392606</v>
       </c>
       <c r="M18">
-        <v>11.4983055773138</v>
+        <v>17.95612456112158</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.38067357601211</v>
+        <v>16.47199319411045</v>
       </c>
       <c r="C19">
-        <v>7.167082718054457</v>
+        <v>4.371946294327856</v>
       </c>
       <c r="D19">
-        <v>9.456470472631436</v>
+        <v>13.46433709965999</v>
       </c>
       <c r="E19">
-        <v>8.062340799841483</v>
+        <v>13.38200057824571</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>59.40954324874784</v>
+        <v>69.38783697153137</v>
       </c>
       <c r="H19">
-        <v>17.54584146222417</v>
+        <v>24.29250910492444</v>
       </c>
       <c r="I19">
-        <v>29.60018552954069</v>
+        <v>39.11823550971463</v>
       </c>
       <c r="J19">
-        <v>5.013318309028183</v>
+        <v>8.211146961342424</v>
       </c>
       <c r="K19">
-        <v>11.94446175346839</v>
+        <v>14.16866285602472</v>
       </c>
       <c r="L19">
-        <v>8.059065978907229</v>
+        <v>13.06793471109586</v>
       </c>
       <c r="M19">
-        <v>11.47754182523697</v>
+        <v>17.95625864538564</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.62584290427734</v>
+        <v>16.50755879962926</v>
       </c>
       <c r="C20">
-        <v>7.298424972872905</v>
+        <v>4.435736001687425</v>
       </c>
       <c r="D20">
-        <v>9.531329569461459</v>
+        <v>13.46771260019279</v>
       </c>
       <c r="E20">
-        <v>8.066788169220501</v>
+        <v>13.37618208477539</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>59.892051563233</v>
+        <v>69.46537755176165</v>
       </c>
       <c r="H20">
-        <v>17.61052268165692</v>
+        <v>24.2938439876642</v>
       </c>
       <c r="I20">
-        <v>29.72590113214212</v>
+        <v>39.12723690623469</v>
       </c>
       <c r="J20">
-        <v>5.013533026810967</v>
+        <v>8.211143092601299</v>
       </c>
       <c r="K20">
-        <v>12.186219748386</v>
+        <v>14.19250609605799</v>
       </c>
       <c r="L20">
-        <v>8.089351946777088</v>
+        <v>13.06398277951354</v>
       </c>
       <c r="M20">
-        <v>11.57118652995385</v>
+        <v>17.95584947588586</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.4333239095619</v>
+        <v>16.63125007955758</v>
       </c>
       <c r="C21">
-        <v>7.727812506683988</v>
+        <v>4.642810012233446</v>
       </c>
       <c r="D21">
-        <v>9.785972833424612</v>
+        <v>13.48152181740249</v>
       </c>
       <c r="E21">
-        <v>8.085168386298923</v>
+        <v>13.35802997860738</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>61.53796886856649</v>
+        <v>69.73790443933862</v>
       </c>
       <c r="H21">
-        <v>17.8380199448373</v>
+        <v>24.30169214739016</v>
       </c>
       <c r="I21">
-        <v>30.16529794696543</v>
+        <v>39.16302356088676</v>
       </c>
       <c r="J21">
-        <v>5.01446176571679</v>
+        <v>8.211162757281745</v>
       </c>
       <c r="K21">
-        <v>12.97316544140486</v>
+        <v>14.27623765145953</v>
       </c>
       <c r="L21">
-        <v>8.195425712150868</v>
+        <v>13.05260931151565</v>
       </c>
       <c r="M21">
-        <v>11.8892764089712</v>
+        <v>17.95786599317013</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.95289821988925</v>
+        <v>16.71510629001835</v>
       </c>
       <c r="C22">
-        <v>7.999766737538085</v>
+        <v>4.772696029273754</v>
       </c>
       <c r="D22">
-        <v>9.954634204709354</v>
+        <v>13.49237659095373</v>
       </c>
       <c r="E22">
-        <v>8.09981900902323</v>
+        <v>13.34720553770462</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>62.63209569160566</v>
+        <v>69.92483386109231</v>
       </c>
       <c r="H22">
-        <v>17.99454998078524</v>
+        <v>24.30932251543443</v>
       </c>
       <c r="I22">
-        <v>30.46555998842439</v>
+        <v>39.19053035717338</v>
       </c>
       <c r="J22">
-        <v>5.01523434189911</v>
+        <v>8.211199951781509</v>
       </c>
       <c r="K22">
-        <v>13.46899476034758</v>
+        <v>14.33359161130179</v>
       </c>
       <c r="L22">
-        <v>8.268024790536902</v>
+        <v>13.04659264596012</v>
       </c>
       <c r="M22">
-        <v>12.09958853755056</v>
+        <v>17.96170155584488</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.67478550641454</v>
+        <v>16.6700818409981</v>
       </c>
       <c r="C23">
-        <v>7.855399787002693</v>
+        <v>4.703874533631261</v>
       </c>
       <c r="D23">
-        <v>9.864417083582572</v>
+        <v>13.48641644174722</v>
       </c>
       <c r="E23">
-        <v>8.091753298440965</v>
+        <v>13.35288782939993</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>62.04645086417875</v>
+        <v>69.82426780418716</v>
       </c>
       <c r="H23">
-        <v>17.91027158665172</v>
+        <v>24.30502156805316</v>
       </c>
       <c r="I23">
-        <v>30.30407927531333</v>
+        <v>39.17547356571422</v>
       </c>
       <c r="J23">
-        <v>5.014806098857338</v>
+        <v>8.211177873111387</v>
       </c>
       <c r="K23">
-        <v>13.20602670592064</v>
+        <v>14.30274455155099</v>
       </c>
       <c r="L23">
-        <v>8.228973994131835</v>
+        <v>13.04967443191825</v>
       </c>
       <c r="M23">
-        <v>11.98712837285339</v>
+        <v>17.9594247481451</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.61243980895481</v>
+        <v>16.50558964715978</v>
       </c>
       <c r="C24">
-        <v>7.291257530941303</v>
+        <v>4.43226012471407</v>
       </c>
       <c r="D24">
-        <v>9.527206639508682</v>
+        <v>13.46751792558546</v>
       </c>
       <c r="E24">
-        <v>8.066531196648338</v>
+        <v>13.37649634621244</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>59.86546114433276</v>
+        <v>69.46107393320197</v>
       </c>
       <c r="H24">
-        <v>17.60693306127317</v>
+        <v>24.29375801725256</v>
       </c>
       <c r="I24">
-        <v>29.71893446346462</v>
+        <v>39.12672170750069</v>
       </c>
       <c r="J24">
-        <v>5.013520482208317</v>
+        <v>8.211143182170197</v>
       </c>
       <c r="K24">
-        <v>12.17303980611841</v>
+        <v>14.1911829449564</v>
       </c>
       <c r="L24">
-        <v>8.087672683264413</v>
+        <v>13.06419262897098</v>
       </c>
       <c r="M24">
-        <v>11.56603057918908</v>
+        <v>17.9558591635562</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.4153110575623</v>
+        <v>16.34181234975138</v>
       </c>
       <c r="C25">
-        <v>6.644287974188631</v>
+        <v>4.116204687267362</v>
       </c>
       <c r="D25">
-        <v>9.173721616537691</v>
+        <v>13.45504879840865</v>
       </c>
       <c r="E25">
-        <v>8.050167907193135</v>
+        <v>13.4064380908526</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>57.59246346980144</v>
+        <v>69.10796485031754</v>
       </c>
       <c r="H25">
-        <v>17.31175284710124</v>
+        <v>24.29237969318426</v>
       </c>
       <c r="I25">
-        <v>29.1413315751415</v>
+        <v>39.09189636797955</v>
       </c>
       <c r="J25">
-        <v>5.012775742795362</v>
+        <v>8.211210286195485</v>
       </c>
       <c r="K25">
-        <v>10.99247553437397</v>
+        <v>14.08257414996768</v>
       </c>
       <c r="L25">
-        <v>7.948954368670988</v>
+        <v>13.08595267498205</v>
       </c>
       <c r="M25">
-        <v>11.12326505741771</v>
+        <v>17.9628837554385</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.23365402659878</v>
+        <v>12.49286688881215</v>
       </c>
       <c r="C2">
-        <v>3.86408143130137</v>
+        <v>6.133727931847178</v>
       </c>
       <c r="D2">
-        <v>13.45272583510759</v>
+        <v>8.923047703299078</v>
       </c>
       <c r="E2">
-        <v>13.43235276683116</v>
+        <v>8.046932712034662</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>68.88191477822151</v>
+        <v>55.98824605705289</v>
       </c>
       <c r="H2">
-        <v>24.30064963152257</v>
+        <v>17.12011802698394</v>
       </c>
       <c r="I2">
-        <v>39.08158368773766</v>
+        <v>28.7592156410899</v>
       </c>
       <c r="J2">
-        <v>8.211349561222056</v>
+        <v>5.012712829075074</v>
       </c>
       <c r="K2">
-        <v>14.01310740033882</v>
+        <v>10.28388218912794</v>
       </c>
       <c r="L2">
-        <v>13.10723826090272</v>
+        <v>7.858188192619578</v>
       </c>
       <c r="M2">
-        <v>17.97745759718419</v>
+        <v>10.8083926337503</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.16842270184804</v>
+        <v>11.84463672085858</v>
       </c>
       <c r="C3">
-        <v>3.681421306795692</v>
+        <v>5.76600497208638</v>
       </c>
       <c r="D3">
-        <v>13.45544950731072</v>
+        <v>8.75959780461779</v>
       </c>
       <c r="E3">
-        <v>13.4523381950136</v>
+        <v>8.049994806389767</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>68.75018976283606</v>
+        <v>54.94517633028664</v>
       </c>
       <c r="H3">
-        <v>24.31205263255582</v>
+        <v>17.00538289191942</v>
       </c>
       <c r="I3">
-        <v>39.08417458963331</v>
+        <v>28.52575578353363</v>
       </c>
       <c r="J3">
-        <v>8.211500009759707</v>
+        <v>5.01294432657157</v>
       </c>
       <c r="K3">
-        <v>13.97276531667602</v>
+        <v>9.789594821058142</v>
       </c>
       <c r="L3">
-        <v>13.12495509120098</v>
+        <v>7.803562882822028</v>
       </c>
       <c r="M3">
-        <v>17.99322053149979</v>
+        <v>10.60267887558464</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.13244529166927</v>
+        <v>11.43640461659413</v>
       </c>
       <c r="C4">
-        <v>3.563592435552464</v>
+        <v>5.529451277211139</v>
       </c>
       <c r="D4">
-        <v>13.45924722181303</v>
+        <v>8.662568463414209</v>
       </c>
       <c r="E4">
-        <v>13.46580756648313</v>
+        <v>8.054389669665667</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>68.67998569267961</v>
+        <v>54.32681169147302</v>
       </c>
       <c r="H4">
-        <v>24.32191551263523</v>
+        <v>16.94210531735852</v>
       </c>
       <c r="I4">
-        <v>39.09049452836956</v>
+        <v>28.3945152265766</v>
       </c>
       <c r="J4">
-        <v>8.211620046196519</v>
+        <v>5.013213316195639</v>
       </c>
       <c r="K4">
-        <v>13.95137258553986</v>
+        <v>9.48013988438364</v>
       </c>
       <c r="L4">
-        <v>13.13745921237892</v>
+        <v>7.773349285110448</v>
       </c>
       <c r="M4">
-        <v>18.00580830433204</v>
+        <v>10.48041400695335</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.11882232567873</v>
+        <v>11.26769510732002</v>
       </c>
       <c r="C5">
-        <v>3.514175684209019</v>
+        <v>5.430345056501886</v>
       </c>
       <c r="D5">
-        <v>13.46133003658027</v>
+        <v>8.623889131073167</v>
       </c>
       <c r="E5">
-        <v>13.47159822616512</v>
+        <v>8.056801902402759</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>68.65407351516295</v>
+        <v>54.0804265457506</v>
       </c>
       <c r="H5">
-        <v>24.32665445977838</v>
+        <v>16.91807849515064</v>
       </c>
       <c r="I5">
-        <v>39.09425972148824</v>
+        <v>28.34400697349693</v>
       </c>
       <c r="J5">
-        <v>8.211675920557948</v>
+        <v>5.01335369216102</v>
       </c>
       <c r="K5">
-        <v>13.94351186609724</v>
+        <v>9.352713040329094</v>
       </c>
       <c r="L5">
-        <v>13.14296396531469</v>
+        <v>7.761862784560569</v>
       </c>
       <c r="M5">
-        <v>18.01167034728919</v>
+        <v>10.43164628387609</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.11662330911243</v>
+        <v>11.23954612082568</v>
       </c>
       <c r="C6">
-        <v>3.505886350898844</v>
+        <v>5.41372509376023</v>
       </c>
       <c r="D6">
-        <v>13.46170823119595</v>
+        <v>8.617519120545621</v>
       </c>
       <c r="E6">
-        <v>13.47257800147447</v>
+        <v>8.057239657400665</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>68.64993399661752</v>
+        <v>54.03985422127211</v>
       </c>
       <c r="H6">
-        <v>24.32748483276131</v>
+        <v>16.91419382522873</v>
       </c>
       <c r="I6">
-        <v>39.09495679879149</v>
+        <v>28.33579760077277</v>
       </c>
       <c r="J6">
-        <v>8.211685618827866</v>
+        <v>5.013378827796449</v>
       </c>
       <c r="K6">
-        <v>13.94225856667034</v>
+        <v>9.331479828667707</v>
       </c>
       <c r="L6">
-        <v>13.14390275151849</v>
+        <v>7.760005008475999</v>
       </c>
       <c r="M6">
-        <v>18.01268799352302</v>
+        <v>10.42361335354424</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.13225734751692</v>
+        <v>11.43413854641898</v>
       </c>
       <c r="C7">
-        <v>3.562931616130691</v>
+        <v>5.528125658069714</v>
       </c>
       <c r="D7">
-        <v>13.45927314342014</v>
+        <v>8.662043304247364</v>
       </c>
       <c r="E7">
-        <v>13.46588443881449</v>
+        <v>8.054419700723015</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>68.67962529941019</v>
+        <v>54.32346610644084</v>
       </c>
       <c r="H7">
-        <v>24.32197650938063</v>
+        <v>16.94177421812448</v>
       </c>
       <c r="I7">
-        <v>39.09054048928798</v>
+        <v>28.3938221101481</v>
       </c>
       <c r="J7">
-        <v>8.211620771557232</v>
+        <v>5.013215086243643</v>
       </c>
       <c r="K7">
-        <v>13.95126309372892</v>
+        <v>9.47842645696489</v>
       </c>
       <c r="L7">
-        <v>13.13753179401426</v>
+        <v>7.773191045217239</v>
       </c>
       <c r="M7">
-        <v>18.00588439533269</v>
+        <v>10.47975198091156</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.21032500401286</v>
+        <v>12.27159577932051</v>
       </c>
       <c r="C8">
-        <v>3.802292436424528</v>
+        <v>6.009169723535872</v>
       </c>
       <c r="D8">
-        <v>13.45322435070225</v>
+        <v>8.866013616455511</v>
       </c>
       <c r="E8">
-        <v>13.43899533469819</v>
+        <v>8.047459854838879</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>68.83428808107142</v>
+        <v>55.62404379339052</v>
       </c>
       <c r="H8">
-        <v>24.30398767481617</v>
+        <v>17.07904301361015</v>
       </c>
       <c r="I8">
-        <v>39.0814959431008</v>
+        <v>28.67616438590447</v>
       </c>
       <c r="J8">
-        <v>8.211395696657545</v>
+        <v>5.012765608800637</v>
       </c>
       <c r="K8">
-        <v>13.99850135131538</v>
+        <v>10.11478679542984</v>
       </c>
       <c r="L8">
-        <v>13.11300979818566</v>
+        <v>7.838656701570122</v>
       </c>
       <c r="M8">
-        <v>17.98228940429881</v>
+        <v>10.73664697471119</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.39509444835664</v>
+        <v>13.82519378837225</v>
       </c>
       <c r="C9">
-        <v>4.225718431087071</v>
+        <v>6.867468821363115</v>
       </c>
       <c r="D9">
-        <v>13.4581867729159</v>
+        <v>9.291359946880682</v>
       </c>
       <c r="E9">
-        <v>13.39575247078823</v>
+        <v>8.054277641658562</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>69.22168137618922</v>
+        <v>58.34744395862852</v>
       </c>
       <c r="H9">
-        <v>24.29140286956577</v>
+        <v>17.40707154560678</v>
       </c>
       <c r="I9">
-        <v>39.10124918957667</v>
+        <v>29.32900161925773</v>
       </c>
       <c r="J9">
-        <v>8.211173721480245</v>
+        <v>5.012947067272028</v>
       </c>
       <c r="K9">
-        <v>14.11755439402634</v>
+        <v>11.3910328025076</v>
       </c>
       <c r="L9">
-        <v>13.07780621976776</v>
+        <v>7.993888462777708</v>
       </c>
       <c r="M9">
-        <v>17.95906028037157</v>
+        <v>11.27077459792759</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.54919618694752</v>
+        <v>14.90491096795134</v>
       </c>
       <c r="C10">
-        <v>4.507814448541621</v>
+        <v>7.447342136863287</v>
       </c>
       <c r="D10">
-        <v>13.47202715549956</v>
+        <v>9.617958945580632</v>
       </c>
       <c r="E10">
-        <v>13.36973707172501</v>
+        <v>8.072498792597164</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>69.55664757384424</v>
+        <v>60.45118888293166</v>
       </c>
       <c r="H10">
-        <v>24.29596882994611</v>
+        <v>17.68665825868616</v>
       </c>
       <c r="I10">
-        <v>39.1385595113406</v>
+        <v>29.87340107482289</v>
       </c>
       <c r="J10">
-        <v>8.211144370695925</v>
+        <v>5.013815451204738</v>
       </c>
       <c r="K10">
-        <v>14.22056122263894</v>
+        <v>12.45972536542767</v>
       </c>
       <c r="L10">
-        <v>13.05977291102024</v>
+        <v>8.124927641710398</v>
       </c>
       <c r="M10">
-        <v>17.95597426159139</v>
+        <v>11.67947836937644</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.62305689729705</v>
+        <v>15.38171548414266</v>
       </c>
       <c r="C11">
-        <v>4.629708640932777</v>
+        <v>7.70049877370314</v>
       </c>
       <c r="D11">
-        <v>13.48052014758939</v>
+        <v>9.769340130578408</v>
       </c>
       <c r="E11">
-        <v>13.35914560206222</v>
+        <v>8.083825223974566</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>69.71972844186415</v>
+        <v>61.4302424272344</v>
       </c>
       <c r="H11">
-        <v>24.3010376993628</v>
+        <v>17.82282661795364</v>
       </c>
       <c r="I11">
-        <v>39.16046431995849</v>
+        <v>30.13607144114872</v>
       </c>
       <c r="J11">
-        <v>8.211160064218641</v>
+        <v>5.01439217353659</v>
       </c>
       <c r="K11">
-        <v>14.27065718890854</v>
+        <v>12.92325820433852</v>
       </c>
       <c r="L11">
-        <v>13.05326367136116</v>
+        <v>8.188362672925784</v>
       </c>
       <c r="M11">
-        <v>17.95758837132841</v>
+        <v>11.86852048747593</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.65154570916211</v>
+        <v>15.56015643600628</v>
       </c>
       <c r="C12">
-        <v>4.674933009882831</v>
+        <v>7.794871686811122</v>
       </c>
       <c r="D12">
-        <v>13.48405033074036</v>
+        <v>9.827049782667888</v>
       </c>
       <c r="E12">
-        <v>13.35531313530376</v>
+        <v>8.088565639278359</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>69.78299850939422</v>
+        <v>61.80414740076926</v>
       </c>
       <c r="H12">
-        <v>24.30338637459293</v>
+        <v>17.87573259175671</v>
       </c>
       <c r="I12">
-        <v>39.1694659594915</v>
+        <v>30.23777799050514</v>
       </c>
       <c r="J12">
-        <v>8.211170183289491</v>
+        <v>5.014638778648103</v>
       </c>
       <c r="K12">
-        <v>14.29007987938989</v>
+        <v>13.09561009215876</v>
       </c>
       <c r="L12">
-        <v>13.05104184091009</v>
+        <v>8.212944835769145</v>
       </c>
       <c r="M12">
-        <v>17.95863170856973</v>
+        <v>11.94052399663638</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.64538738183257</v>
+        <v>15.52182055379666</v>
       </c>
       <c r="C13">
-        <v>4.665234812918808</v>
+        <v>7.774612502146006</v>
       </c>
       <c r="D13">
-        <v>13.48327610572866</v>
+        <v>9.814604124269511</v>
       </c>
       <c r="E13">
-        <v>13.35613060334423</v>
+        <v>8.087524392602322</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>69.7693051989674</v>
+        <v>61.72347971214629</v>
       </c>
       <c r="H13">
-        <v>24.30286147428503</v>
+        <v>17.8642778306905</v>
       </c>
       <c r="I13">
-        <v>39.16749590520918</v>
+        <v>30.21577277728971</v>
       </c>
       <c r="J13">
-        <v>8.21116781823017</v>
+        <v>5.014584377272192</v>
       </c>
       <c r="K13">
-        <v>14.28587695010695</v>
+        <v>13.05863112541477</v>
       </c>
       <c r="L13">
-        <v>13.05150955013798</v>
+        <v>8.207625511383455</v>
       </c>
       <c r="M13">
-        <v>17.95838782097343</v>
+        <v>11.92499863494211</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.62539040472402</v>
+        <v>15.39643850242305</v>
       </c>
       <c r="C14">
-        <v>4.633448047955331</v>
+        <v>7.708292561162692</v>
       </c>
       <c r="D14">
-        <v>13.48080429469956</v>
+        <v>9.774080321401184</v>
       </c>
       <c r="E14">
-        <v>13.35882673211055</v>
+        <v>8.084206089174968</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>69.72490349326681</v>
+        <v>61.46094048927556</v>
       </c>
       <c r="H14">
-        <v>24.30122233079416</v>
+        <v>17.82715203200406</v>
       </c>
       <c r="I14">
-        <v>39.16119074116553</v>
+        <v>30.14439355838612</v>
       </c>
       <c r="J14">
-        <v>8.211160813023545</v>
+        <v>5.014411883660994</v>
       </c>
       <c r="K14">
-        <v>14.27224611567169</v>
+        <v>12.9375009426103</v>
       </c>
       <c r="L14">
-        <v>13.05307601170289</v>
+        <v>8.190373761076533</v>
       </c>
       <c r="M14">
-        <v>17.95766555862786</v>
+        <v>11.8744360564528</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.61320867111542</v>
+        <v>15.31936195609909</v>
       </c>
       <c r="C15">
-        <v>4.613855820706897</v>
+        <v>7.667476567240583</v>
       </c>
       <c r="D15">
-        <v>13.47933108227649</v>
+        <v>9.749307938810597</v>
       </c>
       <c r="E15">
-        <v>13.36050139410466</v>
+        <v>8.082232755284851</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>69.69790269814334</v>
+        <v>61.30053905455893</v>
       </c>
       <c r="H15">
-        <v>24.30027417022474</v>
+        <v>17.80458770815289</v>
       </c>
       <c r="I15">
-        <v>39.15742060782289</v>
+        <v>30.10096573143142</v>
       </c>
       <c r="J15">
-        <v>8.211157065998359</v>
+        <v>5.014309966449271</v>
       </c>
       <c r="K15">
-        <v>14.2639553542194</v>
+        <v>12.86289364992222</v>
       </c>
       <c r="L15">
-        <v>13.05406715344246</v>
+        <v>8.179879915267225</v>
       </c>
       <c r="M15">
-        <v>17.95727936650761</v>
+        <v>11.84351852548506</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.5444430679217</v>
+        <v>14.87345687667758</v>
       </c>
       <c r="C16">
-        <v>4.499718090155847</v>
+        <v>7.430586839241865</v>
       </c>
       <c r="D16">
-        <v>13.47151617325358</v>
+        <v>9.60812065009792</v>
       </c>
       <c r="E16">
-        <v>13.37045422381759</v>
+        <v>8.071820933221014</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>69.54620320288024</v>
+        <v>60.38764753962808</v>
       </c>
       <c r="H16">
-        <v>24.29569768730893</v>
+        <v>17.67794433352821</v>
       </c>
       <c r="I16">
-        <v>39.13722702522875</v>
+        <v>29.85654385810861</v>
       </c>
       <c r="J16">
-        <v>8.211143929513618</v>
+        <v>5.013781590133142</v>
       </c>
       <c r="K16">
-        <v>14.2173513771695</v>
+        <v>12.42898351389604</v>
       </c>
       <c r="L16">
-        <v>13.06023235116051</v>
+        <v>8.120859875060194</v>
       </c>
       <c r="M16">
-        <v>17.95592934949335</v>
+        <v>11.66718402208936</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.50320560781133</v>
+        <v>14.59618680317139</v>
       </c>
       <c r="C17">
-        <v>4.428043413628933</v>
+        <v>7.282564125145384</v>
       </c>
       <c r="D17">
-        <v>13.46728341768455</v>
+        <v>9.522211738496086</v>
       </c>
       <c r="E17">
-        <v>13.37687801756688</v>
+        <v>8.066221722628091</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>69.45586517204944</v>
+        <v>59.83324951859743</v>
       </c>
       <c r="H17">
-        <v>24.29365576709078</v>
+        <v>17.6025884605424</v>
       </c>
       <c r="I17">
-        <v>39.1261005185666</v>
+        <v>29.71050098898773</v>
       </c>
       <c r="J17">
-        <v>8.211143309548467</v>
+        <v>5.013505395437845</v>
       </c>
       <c r="K17">
-        <v>14.18958147592511</v>
+        <v>12.15705183206216</v>
       </c>
       <c r="L17">
-        <v>13.0644480521371</v>
+        <v>8.085639994459243</v>
       </c>
       <c r="M17">
-        <v>17.95587286230284</v>
+        <v>11.55978392997652</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.47984206175246</v>
+        <v>14.43535765550892</v>
       </c>
       <c r="C18">
-        <v>4.386212967169356</v>
+        <v>7.196422207354547</v>
       </c>
       <c r="D18">
-        <v>13.46505575742739</v>
+        <v>9.473064618182596</v>
       </c>
       <c r="E18">
-        <v>13.38068984493889</v>
+        <v>8.063286200247568</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>69.40491412012616</v>
+        <v>59.51644926239877</v>
       </c>
       <c r="H18">
-        <v>24.29276298123677</v>
+        <v>17.56008814730943</v>
       </c>
       <c r="I18">
-        <v>39.12016525566217</v>
+        <v>29.62790984274641</v>
       </c>
       <c r="J18">
-        <v>8.211145686860471</v>
+        <v>5.01336349902669</v>
       </c>
       <c r="K18">
-        <v>14.17391454009538</v>
+        <v>11.99851000266559</v>
       </c>
       <c r="L18">
-        <v>13.06703231392606</v>
+        <v>8.06574177527539</v>
       </c>
       <c r="M18">
-        <v>17.95612456112158</v>
+        <v>11.49830557731378</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.47199319411045</v>
+        <v>14.38067357601213</v>
       </c>
       <c r="C19">
-        <v>4.371946294327856</v>
+        <v>7.167082718054607</v>
       </c>
       <c r="D19">
-        <v>13.46433709965999</v>
+        <v>9.456470472631546</v>
       </c>
       <c r="E19">
-        <v>13.38200057824571</v>
+        <v>8.062340799841536</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>69.38783697153137</v>
+        <v>59.40954324874814</v>
       </c>
       <c r="H19">
-        <v>24.29250910492444</v>
+        <v>17.54584146222439</v>
       </c>
       <c r="I19">
-        <v>39.11823550971463</v>
+        <v>29.6001855295409</v>
       </c>
       <c r="J19">
-        <v>8.211146961342424</v>
+        <v>5.013318309028147</v>
       </c>
       <c r="K19">
-        <v>14.16866285602472</v>
+        <v>11.94446175346838</v>
       </c>
       <c r="L19">
-        <v>13.06793471109586</v>
+        <v>8.059065978907222</v>
       </c>
       <c r="M19">
-        <v>17.95625864538564</v>
+        <v>11.47754182523699</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.50755879962926</v>
+        <v>14.62584290427736</v>
       </c>
       <c r="C20">
-        <v>4.435736001687425</v>
+        <v>7.298424972873069</v>
       </c>
       <c r="D20">
-        <v>13.46771260019279</v>
+        <v>9.531329569461604</v>
       </c>
       <c r="E20">
-        <v>13.37618208477539</v>
+        <v>8.066788169220713</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>69.46537755176165</v>
+        <v>59.89205156323357</v>
       </c>
       <c r="H20">
-        <v>24.2938439876642</v>
+        <v>17.61052268165712</v>
       </c>
       <c r="I20">
-        <v>39.12723690623469</v>
+        <v>29.72590113214251</v>
       </c>
       <c r="J20">
-        <v>8.211143092601299</v>
+        <v>5.013533026810967</v>
       </c>
       <c r="K20">
-        <v>14.19250609605799</v>
+        <v>12.18621974838597</v>
       </c>
       <c r="L20">
-        <v>13.06398277951354</v>
+        <v>8.089351946777166</v>
       </c>
       <c r="M20">
-        <v>17.95584947588586</v>
+        <v>11.57118652995395</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.63125007955758</v>
+        <v>15.43332390956187</v>
       </c>
       <c r="C21">
-        <v>4.642810012233446</v>
+        <v>7.727812506683905</v>
       </c>
       <c r="D21">
-        <v>13.48152181740249</v>
+        <v>9.785972833424573</v>
       </c>
       <c r="E21">
-        <v>13.35802997860738</v>
+        <v>8.085168386298879</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>69.73790443933862</v>
+        <v>61.53796886856646</v>
       </c>
       <c r="H21">
-        <v>24.30169214739016</v>
+        <v>17.8380199448373</v>
       </c>
       <c r="I21">
-        <v>39.16302356088676</v>
+        <v>30.16529794696537</v>
       </c>
       <c r="J21">
-        <v>8.211162757281745</v>
+        <v>5.014461765716788</v>
       </c>
       <c r="K21">
-        <v>14.27623765145953</v>
+        <v>12.97316544140482</v>
       </c>
       <c r="L21">
-        <v>13.05260931151565</v>
+        <v>8.195425712150831</v>
       </c>
       <c r="M21">
-        <v>17.95786599317013</v>
+        <v>11.88927640897118</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.71510629001835</v>
+        <v>15.95289821988925</v>
       </c>
       <c r="C22">
-        <v>4.772696029273754</v>
+        <v>7.999766737538097</v>
       </c>
       <c r="D22">
-        <v>13.49237659095373</v>
+        <v>9.954634204709311</v>
       </c>
       <c r="E22">
-        <v>13.34720553770462</v>
+        <v>8.099819009023268</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>69.92483386109231</v>
+        <v>62.63209569160597</v>
       </c>
       <c r="H22">
-        <v>24.30932251543443</v>
+        <v>17.99454998078539</v>
       </c>
       <c r="I22">
-        <v>39.19053035717338</v>
+        <v>30.46555998842456</v>
       </c>
       <c r="J22">
-        <v>8.211199951781509</v>
+        <v>5.01523434189921</v>
       </c>
       <c r="K22">
-        <v>14.33359161130179</v>
+        <v>13.46899476034756</v>
       </c>
       <c r="L22">
-        <v>13.04659264596012</v>
+        <v>8.26802479053689</v>
       </c>
       <c r="M22">
-        <v>17.96170155584488</v>
+        <v>12.0995885375506</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.6700818409981</v>
+        <v>15.67478550641455</v>
       </c>
       <c r="C23">
-        <v>4.703874533631261</v>
+        <v>7.855399787002391</v>
       </c>
       <c r="D23">
-        <v>13.48641644174722</v>
+        <v>9.864417083582554</v>
       </c>
       <c r="E23">
-        <v>13.35288782939993</v>
+        <v>8.091753298440814</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>69.82426780418716</v>
+        <v>62.04645086417915</v>
       </c>
       <c r="H23">
-        <v>24.30502156805316</v>
+        <v>17.91027158665182</v>
       </c>
       <c r="I23">
-        <v>39.17547356571422</v>
+        <v>30.30407927531352</v>
       </c>
       <c r="J23">
-        <v>8.211177873111387</v>
+        <v>5.014806098857235</v>
       </c>
       <c r="K23">
-        <v>14.30274455155099</v>
+        <v>13.20602670592051</v>
       </c>
       <c r="L23">
-        <v>13.04967443191825</v>
+        <v>8.228973994131842</v>
       </c>
       <c r="M23">
-        <v>17.9594247481451</v>
+        <v>11.98712837285342</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.50558964715978</v>
+        <v>14.6124398089548</v>
       </c>
       <c r="C24">
-        <v>4.43226012471407</v>
+        <v>7.291257530941218</v>
       </c>
       <c r="D24">
-        <v>13.46751792558546</v>
+        <v>9.52720663950865</v>
       </c>
       <c r="E24">
-        <v>13.37649634621244</v>
+        <v>8.066531196648274</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>69.46107393320197</v>
+        <v>59.86546114433292</v>
       </c>
       <c r="H24">
-        <v>24.29375801725256</v>
+        <v>17.60693306127321</v>
       </c>
       <c r="I24">
-        <v>39.12672170750069</v>
+        <v>29.71893446346471</v>
       </c>
       <c r="J24">
-        <v>8.211143182170197</v>
+        <v>5.013520482208317</v>
       </c>
       <c r="K24">
-        <v>14.1911829449564</v>
+        <v>12.17303980611839</v>
       </c>
       <c r="L24">
-        <v>13.06419262897098</v>
+        <v>8.087672683264431</v>
       </c>
       <c r="M24">
-        <v>17.9558591635562</v>
+        <v>11.56603057918907</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.34181234975138</v>
+        <v>13.41531105756226</v>
       </c>
       <c r="C25">
-        <v>4.116204687267362</v>
+        <v>6.644287974188173</v>
       </c>
       <c r="D25">
-        <v>13.45504879840865</v>
+        <v>9.173721616537534</v>
       </c>
       <c r="E25">
-        <v>13.4064380908526</v>
+        <v>8.050167907192915</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.10796485031754</v>
+        <v>57.59246346980181</v>
       </c>
       <c r="H25">
-        <v>24.29237969318426</v>
+        <v>17.31175284710123</v>
       </c>
       <c r="I25">
-        <v>39.09189636797955</v>
+        <v>29.14133157514149</v>
       </c>
       <c r="J25">
-        <v>8.211210286195485</v>
+        <v>5.012775742795228</v>
       </c>
       <c r="K25">
-        <v>14.08257414996768</v>
+        <v>10.99247553437397</v>
       </c>
       <c r="L25">
-        <v>13.08595267498205</v>
+        <v>7.948954368670935</v>
       </c>
       <c r="M25">
-        <v>17.9628837554385</v>
+        <v>11.12326505741766</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.49286688881215</v>
+        <v>24.23101845228591</v>
       </c>
       <c r="C2">
-        <v>6.133727931847178</v>
+        <v>15.37580305826026</v>
       </c>
       <c r="D2">
-        <v>8.923047703299078</v>
+        <v>7.14711166798661</v>
       </c>
       <c r="E2">
-        <v>8.046932712034662</v>
+        <v>8.534291651233247</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>55.98824605705289</v>
+        <v>21.51725198485778</v>
       </c>
       <c r="H2">
-        <v>17.12011802698394</v>
+        <v>1.639507465066585</v>
       </c>
       <c r="I2">
-        <v>28.7592156410899</v>
+        <v>2.569195779030785</v>
       </c>
       <c r="J2">
-        <v>5.012712829075074</v>
+        <v>8.481568037594087</v>
       </c>
       <c r="K2">
-        <v>10.28388218912794</v>
+        <v>13.0690015903862</v>
       </c>
       <c r="L2">
-        <v>7.858188192619578</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.8083926337503</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.105190064903912</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.82573072551885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.84463672085858</v>
+        <v>22.63961799384512</v>
       </c>
       <c r="C3">
-        <v>5.76600497208638</v>
+        <v>14.66782702217147</v>
       </c>
       <c r="D3">
-        <v>8.75959780461779</v>
+        <v>6.657094638352147</v>
       </c>
       <c r="E3">
-        <v>8.049994806389767</v>
+        <v>8.428450554100836</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>54.94517633028664</v>
+        <v>20.97528160473691</v>
       </c>
       <c r="H3">
-        <v>17.00538289191942</v>
+        <v>1.686621595866433</v>
       </c>
       <c r="I3">
-        <v>28.52575578353363</v>
+        <v>2.539758571992724</v>
       </c>
       <c r="J3">
-        <v>5.01294432657157</v>
+        <v>8.499890064071648</v>
       </c>
       <c r="K3">
-        <v>9.789594821058142</v>
+        <v>13.2750920796308</v>
       </c>
       <c r="L3">
-        <v>7.803562882822028</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.60267887558464</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.772492238670199</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.73468044419249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.43640461659413</v>
+        <v>21.60256286629354</v>
       </c>
       <c r="C4">
-        <v>5.529451277211139</v>
+        <v>14.21756785995417</v>
       </c>
       <c r="D4">
-        <v>8.662568463414209</v>
+        <v>6.338902874589222</v>
       </c>
       <c r="E4">
-        <v>8.054389669665667</v>
+        <v>8.36124644117232</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>54.32681169147302</v>
+        <v>20.65225231806216</v>
       </c>
       <c r="H4">
-        <v>16.94210531735852</v>
+        <v>1.81813726371062</v>
       </c>
       <c r="I4">
-        <v>28.3945152265766</v>
+        <v>2.647511316809452</v>
       </c>
       <c r="J4">
-        <v>5.013213316195639</v>
+        <v>8.515232098018039</v>
       </c>
       <c r="K4">
-        <v>9.48013988438364</v>
+        <v>13.40721929111171</v>
       </c>
       <c r="L4">
-        <v>7.773349285110448</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.48041400695335</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.561108350042421</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.68708526329156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.26769510732002</v>
+        <v>21.16469978178838</v>
       </c>
       <c r="C5">
-        <v>5.430345056501886</v>
+        <v>14.03993356697259</v>
       </c>
       <c r="D5">
-        <v>8.623889131073167</v>
+        <v>6.211788463990764</v>
       </c>
       <c r="E5">
-        <v>8.056801902402759</v>
+        <v>8.331496502470253</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>54.0804265457506</v>
+        <v>20.50677181123396</v>
       </c>
       <c r="H5">
-        <v>16.91807849515064</v>
+        <v>1.873136002635192</v>
       </c>
       <c r="I5">
-        <v>28.34400697349693</v>
+        <v>2.695564557556664</v>
       </c>
       <c r="J5">
-        <v>5.01335369216102</v>
+        <v>8.519837813428435</v>
       </c>
       <c r="K5">
-        <v>9.352713040329094</v>
+        <v>13.45709900296913</v>
       </c>
       <c r="L5">
-        <v>7.761862784560569</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.43164628387609</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.474031145962245</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.66301020168829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.23954612082568</v>
+        <v>21.09091390972915</v>
       </c>
       <c r="C6">
-        <v>5.41372509376023</v>
+        <v>14.0220119556723</v>
       </c>
       <c r="D6">
-        <v>8.617519120545621</v>
+        <v>6.192623980506504</v>
       </c>
       <c r="E6">
-        <v>8.057239657400665</v>
+        <v>8.324321137635492</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.03985422127211</v>
+        <v>20.46270248633401</v>
       </c>
       <c r="H6">
-        <v>16.91419382522873</v>
+        <v>1.88266679757622</v>
       </c>
       <c r="I6">
-        <v>28.33579760077277</v>
+        <v>2.707521071497748</v>
       </c>
       <c r="J6">
-        <v>5.013378827796449</v>
+        <v>8.517433941992387</v>
       </c>
       <c r="K6">
-        <v>9.331479828667707</v>
+        <v>13.45896673528258</v>
       </c>
       <c r="L6">
-        <v>7.760005008475999</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.42361335354424</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.460414284242822</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.6509279175331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.43413854641898</v>
+        <v>21.59628046231331</v>
       </c>
       <c r="C7">
-        <v>5.528125658069714</v>
+        <v>14.2469633970684</v>
       </c>
       <c r="D7">
-        <v>8.662043304247364</v>
+        <v>6.33705777463235</v>
       </c>
       <c r="E7">
-        <v>8.054419700723015</v>
+        <v>8.35489043172241</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>54.32346610644084</v>
+        <v>20.59592096526775</v>
       </c>
       <c r="H7">
-        <v>16.94177421812448</v>
+        <v>1.819753524693549</v>
       </c>
       <c r="I7">
-        <v>28.3938221101481</v>
+        <v>2.658529447442498</v>
       </c>
       <c r="J7">
-        <v>5.013215086243643</v>
+        <v>8.506486612321842</v>
       </c>
       <c r="K7">
-        <v>9.47842645696489</v>
+        <v>13.39011756466427</v>
       </c>
       <c r="L7">
-        <v>7.773191045217239</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.47975198091156</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.562484444275153</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.66440801109026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.27159577932051</v>
+        <v>23.69417318835119</v>
       </c>
       <c r="C8">
-        <v>6.009169723535872</v>
+        <v>15.17507070254632</v>
       </c>
       <c r="D8">
-        <v>8.866013616455511</v>
+        <v>6.981656550207789</v>
       </c>
       <c r="E8">
-        <v>8.047459854838879</v>
+        <v>8.490626766024834</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>55.62404379339052</v>
+        <v>21.25881042324211</v>
       </c>
       <c r="H8">
-        <v>17.07904301361015</v>
+        <v>1.569711998889942</v>
       </c>
       <c r="I8">
-        <v>28.67616438590447</v>
+        <v>2.516995620707202</v>
       </c>
       <c r="J8">
-        <v>5.012765608800637</v>
+        <v>8.475427859506665</v>
       </c>
       <c r="K8">
-        <v>10.11478679542984</v>
+        <v>13.11525921999753</v>
       </c>
       <c r="L8">
-        <v>7.838656701570122</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.73664697471119</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.995221762836405</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.76337790240041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.82519378837225</v>
+        <v>27.33582435244944</v>
       </c>
       <c r="C9">
-        <v>6.867468821363115</v>
+        <v>16.8139507410194</v>
       </c>
       <c r="D9">
-        <v>9.291359946880682</v>
+        <v>8.109669799787444</v>
       </c>
       <c r="E9">
-        <v>8.054277641658562</v>
+        <v>8.74959068143947</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>58.34744395862852</v>
+        <v>22.72380125778836</v>
       </c>
       <c r="H9">
-        <v>17.40707154560678</v>
+        <v>2.051395575418129</v>
       </c>
       <c r="I9">
-        <v>29.32900161925773</v>
+        <v>2.906491557829717</v>
       </c>
       <c r="J9">
-        <v>5.012947067272028</v>
+        <v>8.464276129854062</v>
       </c>
       <c r="K9">
-        <v>11.3910328025076</v>
+        <v>12.65490730769587</v>
       </c>
       <c r="L9">
-        <v>7.993888462777708</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>11.27077459792759</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.780165156361848</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.06522198452032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.90491096795134</v>
+        <v>29.72444122925678</v>
       </c>
       <c r="C10">
-        <v>7.447342136863287</v>
+        <v>18.04273169707526</v>
       </c>
       <c r="D10">
-        <v>9.617958945580632</v>
+        <v>8.856765901258683</v>
       </c>
       <c r="E10">
-        <v>8.072498792597164</v>
+        <v>8.840157929252118</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>60.45118888293166</v>
+        <v>23.58254213628668</v>
       </c>
       <c r="H10">
-        <v>17.68665825868616</v>
+        <v>2.375844187019776</v>
       </c>
       <c r="I10">
-        <v>29.87340107482289</v>
+        <v>3.177842427354423</v>
       </c>
       <c r="J10">
-        <v>5.013815451204738</v>
+        <v>8.433605584889365</v>
       </c>
       <c r="K10">
-        <v>12.45972536542767</v>
+        <v>12.26040557697404</v>
       </c>
       <c r="L10">
-        <v>8.124927641710398</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.67947836937644</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.185739622140719</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.21932774831015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.38171548414266</v>
+        <v>30.73325791091219</v>
       </c>
       <c r="C11">
-        <v>7.70049877370314</v>
+        <v>19.44762265902365</v>
       </c>
       <c r="D11">
-        <v>9.769340130578408</v>
+        <v>9.175839967425798</v>
       </c>
       <c r="E11">
-        <v>8.083825223974566</v>
+        <v>8.372367499317802</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>61.4302424272344</v>
+        <v>21.92272093748154</v>
       </c>
       <c r="H11">
-        <v>17.82282661795364</v>
+        <v>3.162185255361837</v>
       </c>
       <c r="I11">
-        <v>30.13607144114872</v>
+        <v>3.266512728572351</v>
       </c>
       <c r="J11">
-        <v>5.01439217353659</v>
+        <v>8.054283193404551</v>
       </c>
       <c r="K11">
-        <v>12.92325820433852</v>
+        <v>11.40821354525384</v>
       </c>
       <c r="L11">
-        <v>8.188362672925784</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.86852048747593</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.245767613195962</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.38485087831866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.56015643600628</v>
+        <v>31.1014496631022</v>
       </c>
       <c r="C12">
-        <v>7.794871686811122</v>
+        <v>20.36432864456259</v>
       </c>
       <c r="D12">
-        <v>9.827049782667888</v>
+        <v>9.293036514488696</v>
       </c>
       <c r="E12">
-        <v>8.088565639278359</v>
+        <v>8.330115281914011</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>61.80414740076926</v>
+        <v>20.38254617628382</v>
       </c>
       <c r="H12">
-        <v>17.87573259175671</v>
+        <v>4.349265250037694</v>
       </c>
       <c r="I12">
-        <v>30.23777799050514</v>
+        <v>3.28511194909011</v>
       </c>
       <c r="J12">
-        <v>5.014638778648103</v>
+        <v>7.751160682512846</v>
       </c>
       <c r="K12">
-        <v>13.09561009215876</v>
+        <v>10.85290784458992</v>
       </c>
       <c r="L12">
-        <v>8.212944835769145</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.94052399663638</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.392219709376348</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.66934026383993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.52182055379666</v>
+        <v>31.0112350011184</v>
       </c>
       <c r="C13">
-        <v>7.774612502146006</v>
+        <v>21.0211851194703</v>
       </c>
       <c r="D13">
-        <v>9.814604124269511</v>
+        <v>9.26546378393448</v>
       </c>
       <c r="E13">
-        <v>8.087524392602322</v>
+        <v>8.600150517326759</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>61.72347971214629</v>
+        <v>18.72894762018532</v>
       </c>
       <c r="H13">
-        <v>17.8642778306905</v>
+        <v>5.628937650469213</v>
       </c>
       <c r="I13">
-        <v>30.21577277728971</v>
+        <v>3.254547754166</v>
       </c>
       <c r="J13">
-        <v>5.014584377272192</v>
+        <v>7.475231952335022</v>
       </c>
       <c r="K13">
-        <v>13.05863112541477</v>
+        <v>10.48003949608001</v>
       </c>
       <c r="L13">
-        <v>8.207625511383455</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.92499863494211</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.554947619045917</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.96388701966215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.39643850242305</v>
+        <v>30.73947825009168</v>
       </c>
       <c r="C14">
-        <v>7.708292561162692</v>
+        <v>21.38066049340769</v>
       </c>
       <c r="D14">
-        <v>9.774080321401184</v>
+        <v>9.180334365717863</v>
       </c>
       <c r="E14">
-        <v>8.084206089174968</v>
+        <v>8.96049509998768</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>61.46094048927556</v>
+        <v>17.49458289485425</v>
       </c>
       <c r="H14">
-        <v>17.82715203200406</v>
+        <v>6.55635923832109</v>
       </c>
       <c r="I14">
-        <v>30.14439355838612</v>
+        <v>3.212136968686923</v>
       </c>
       <c r="J14">
-        <v>5.014411883660994</v>
+        <v>7.294560702114722</v>
       </c>
       <c r="K14">
-        <v>12.9375009426103</v>
+        <v>10.31683800980485</v>
       </c>
       <c r="L14">
-        <v>8.190373761076533</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.8744360564528</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.991410274806943</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.4716714827143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.31936195609909</v>
+        <v>30.57382466758662</v>
       </c>
       <c r="C15">
-        <v>7.667476567240583</v>
+        <v>21.422730645622</v>
       </c>
       <c r="D15">
-        <v>9.749307938810597</v>
+        <v>9.128301519315997</v>
       </c>
       <c r="E15">
-        <v>8.082232755284851</v>
+        <v>9.062778119683175</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>61.30053905455893</v>
+        <v>17.15383759118117</v>
       </c>
       <c r="H15">
-        <v>17.80458770815289</v>
+        <v>6.76743254185384</v>
       </c>
       <c r="I15">
-        <v>30.10096573143142</v>
+        <v>3.192041616026727</v>
       </c>
       <c r="J15">
-        <v>5.014309966449271</v>
+        <v>7.254379727395112</v>
       </c>
       <c r="K15">
-        <v>12.86289364992222</v>
+        <v>10.3066495249235</v>
       </c>
       <c r="L15">
-        <v>8.179879915267225</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.84351852548506</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.855084828844589</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.3488971707355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.87345687667758</v>
+        <v>29.61419995353761</v>
       </c>
       <c r="C16">
-        <v>7.430586839241865</v>
+        <v>20.84236704858647</v>
       </c>
       <c r="D16">
-        <v>9.60812065009792</v>
+        <v>8.826731188514463</v>
       </c>
       <c r="E16">
-        <v>8.071820933221014</v>
+        <v>8.95599812825543</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>60.38764753962808</v>
+        <v>17.00327944967699</v>
       </c>
       <c r="H16">
-        <v>17.67794433352821</v>
+        <v>6.496915962926736</v>
       </c>
       <c r="I16">
-        <v>29.85654385810861</v>
+        <v>3.083729060700778</v>
       </c>
       <c r="J16">
-        <v>5.013781590133142</v>
+        <v>7.318977671763142</v>
       </c>
       <c r="K16">
-        <v>12.42898351389604</v>
+        <v>10.55774830789882</v>
       </c>
       <c r="L16">
-        <v>8.120859875060194</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.66718402208936</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.81703798329858</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.40236147152573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.59618680317139</v>
+        <v>29.01264411730505</v>
       </c>
       <c r="C17">
-        <v>7.282564125145384</v>
+        <v>20.18814755016852</v>
       </c>
       <c r="D17">
-        <v>9.522211738496086</v>
+        <v>8.637885774993558</v>
       </c>
       <c r="E17">
-        <v>8.066221722628091</v>
+        <v>8.653104002973869</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>59.83324951859743</v>
+        <v>17.5659219344521</v>
       </c>
       <c r="H17">
-        <v>17.6025884605424</v>
+        <v>5.747919390117036</v>
       </c>
       <c r="I17">
-        <v>29.71050098898773</v>
+        <v>3.023313692950556</v>
       </c>
       <c r="J17">
-        <v>5.013505395437845</v>
+        <v>7.463384776213104</v>
       </c>
       <c r="K17">
-        <v>12.15705183206216</v>
+        <v>10.82531570834394</v>
       </c>
       <c r="L17">
-        <v>8.085639994459243</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>11.55978392997652</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.084346688537096</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.70542324066266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.43535765550892</v>
+        <v>28.66602041028745</v>
       </c>
       <c r="C18">
-        <v>7.196422207354547</v>
+        <v>19.38391883486722</v>
       </c>
       <c r="D18">
-        <v>9.473064618182596</v>
+        <v>8.528649074788946</v>
       </c>
       <c r="E18">
-        <v>8.063286200247568</v>
+        <v>8.305267234841578</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>59.51644926239877</v>
+        <v>18.83362967908047</v>
       </c>
       <c r="H18">
-        <v>17.56008814730943</v>
+        <v>4.540294315623429</v>
       </c>
       <c r="I18">
-        <v>29.62790984274641</v>
+        <v>2.995988648734641</v>
       </c>
       <c r="J18">
-        <v>5.01336349902669</v>
+        <v>7.699973654283646</v>
       </c>
       <c r="K18">
-        <v>11.99851000266559</v>
+        <v>11.18481237467698</v>
       </c>
       <c r="L18">
-        <v>8.06574177527539</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>11.49830557731378</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.688408946079353</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.27276949520704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.38067357601213</v>
+        <v>28.55570746245544</v>
       </c>
       <c r="C19">
-        <v>7.167082718054607</v>
+        <v>18.59584658605358</v>
       </c>
       <c r="D19">
-        <v>9.456470472631546</v>
+        <v>8.492977838553859</v>
       </c>
       <c r="E19">
-        <v>8.062340799841536</v>
+        <v>8.216270627669516</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>59.40954324874814</v>
+        <v>20.47148439671901</v>
       </c>
       <c r="H19">
-        <v>17.54584146222439</v>
+        <v>3.205098490128683</v>
       </c>
       <c r="I19">
-        <v>29.6001855295409</v>
+        <v>3.008794256636023</v>
       </c>
       <c r="J19">
-        <v>5.013318309028147</v>
+        <v>7.98287188203228</v>
       </c>
       <c r="K19">
-        <v>11.94446175346838</v>
+        <v>11.62673320912786</v>
       </c>
       <c r="L19">
-        <v>8.059065978907222</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>11.47754182523699</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.565377633589911</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.97837948160653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.62584290427736</v>
+        <v>29.11507071824764</v>
       </c>
       <c r="C20">
-        <v>7.298424972873069</v>
+        <v>17.81477576686694</v>
       </c>
       <c r="D20">
-        <v>9.531329569461604</v>
+        <v>8.6657805295069</v>
       </c>
       <c r="E20">
-        <v>8.066788169220713</v>
+        <v>8.796685494583345</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>59.89205156323357</v>
+        <v>23.19501377719018</v>
       </c>
       <c r="H20">
-        <v>17.61052268165712</v>
+        <v>2.288019377208034</v>
       </c>
       <c r="I20">
-        <v>29.72590113214251</v>
+        <v>3.116791879168748</v>
       </c>
       <c r="J20">
-        <v>5.013533026810967</v>
+        <v>8.41146917203389</v>
       </c>
       <c r="K20">
-        <v>12.18621974838597</v>
+        <v>12.30258488381586</v>
       </c>
       <c r="L20">
-        <v>8.089351946777166</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>11.57118652995395</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.081945287826292</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.1053558760072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.43332390956187</v>
+        <v>30.86251537886001</v>
       </c>
       <c r="C21">
-        <v>7.727812506683905</v>
+        <v>18.56270667350856</v>
       </c>
       <c r="D21">
-        <v>9.785972833424573</v>
+        <v>9.214572067809994</v>
       </c>
       <c r="E21">
-        <v>8.085168386298879</v>
+        <v>9.001319074842414</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>61.53796886856646</v>
+        <v>24.25861262264902</v>
       </c>
       <c r="H21">
-        <v>17.8380199448373</v>
+        <v>2.548248093663533</v>
       </c>
       <c r="I21">
-        <v>30.16529794696537</v>
+        <v>3.326541670068187</v>
       </c>
       <c r="J21">
-        <v>5.014461765716788</v>
+        <v>8.465716636412949</v>
       </c>
       <c r="K21">
-        <v>12.97316544140482</v>
+        <v>12.14529014224377</v>
       </c>
       <c r="L21">
-        <v>8.195425712150831</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.88927640897118</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.584873732969386</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.41172863300319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.95289821988925</v>
+        <v>31.95329642300963</v>
       </c>
       <c r="C22">
-        <v>7.999766737538097</v>
+        <v>19.0518882595383</v>
       </c>
       <c r="D22">
-        <v>9.954634204709311</v>
+        <v>9.558874225062713</v>
       </c>
       <c r="E22">
-        <v>8.099819009023268</v>
+        <v>9.095642810964263</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>62.63209569160597</v>
+        <v>24.89729584625279</v>
       </c>
       <c r="H22">
-        <v>17.99454998078539</v>
+        <v>2.71005146105589</v>
       </c>
       <c r="I22">
-        <v>30.46555998842456</v>
+        <v>3.455784775920544</v>
       </c>
       <c r="J22">
-        <v>5.01523434189921</v>
+        <v>8.496007172626998</v>
       </c>
       <c r="K22">
-        <v>13.46899476034756</v>
+        <v>12.03347149637487</v>
       </c>
       <c r="L22">
-        <v>8.26802479053689</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>12.0995885375506</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.834606782747159</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.59510894703115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.67478550641455</v>
+        <v>31.37612856868885</v>
       </c>
       <c r="C23">
-        <v>7.855399787002391</v>
+        <v>18.76198620247628</v>
       </c>
       <c r="D23">
-        <v>9.864417083582554</v>
+        <v>9.376479181761397</v>
       </c>
       <c r="E23">
-        <v>8.091753298440814</v>
+        <v>9.051563808660864</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>62.04645086417915</v>
+        <v>24.60968772973627</v>
       </c>
       <c r="H23">
-        <v>17.91027158665182</v>
+        <v>2.624708086982737</v>
       </c>
       <c r="I23">
-        <v>30.30407927531352</v>
+        <v>3.38339156574995</v>
       </c>
       <c r="J23">
-        <v>5.014806098857235</v>
+        <v>8.489429759151577</v>
       </c>
       <c r="K23">
-        <v>13.20602670592051</v>
+        <v>12.11399513898763</v>
       </c>
       <c r="L23">
-        <v>8.228973994131842</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.98712837285342</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.699573369435674</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.52075395776563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.6124398089548</v>
+        <v>29.08793647788867</v>
       </c>
       <c r="C24">
-        <v>7.291257530941218</v>
+        <v>17.67807451838191</v>
       </c>
       <c r="D24">
-        <v>9.52720663950865</v>
+        <v>8.657008174329647</v>
       </c>
       <c r="E24">
-        <v>8.066531196648274</v>
+        <v>8.871782812283897</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>59.86546114433292</v>
+        <v>23.44812618968886</v>
       </c>
       <c r="H24">
-        <v>17.60693306127321</v>
+        <v>2.294063963265491</v>
       </c>
       <c r="I24">
-        <v>29.71893446346471</v>
+        <v>3.11071075845907</v>
       </c>
       <c r="J24">
-        <v>5.013520482208317</v>
+        <v>8.458916621937968</v>
       </c>
       <c r="K24">
-        <v>12.17303980611839</v>
+        <v>12.40021989465196</v>
       </c>
       <c r="L24">
-        <v>8.087672683264431</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>11.56603057918907</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.176165589220533</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.21971702206201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.41531105756226</v>
+        <v>26.4002589507717</v>
       </c>
       <c r="C25">
-        <v>6.644287974188173</v>
+        <v>16.43613087840051</v>
       </c>
       <c r="D25">
-        <v>9.173721616537534</v>
+        <v>7.818797582970359</v>
       </c>
       <c r="E25">
-        <v>8.050167907192915</v>
+        <v>8.671398874695607</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>57.59246346980181</v>
+        <v>22.23025699351445</v>
       </c>
       <c r="H25">
-        <v>17.31175284710123</v>
+        <v>1.923279377855044</v>
       </c>
       <c r="I25">
-        <v>29.14133157514149</v>
+        <v>2.808452091565203</v>
       </c>
       <c r="J25">
-        <v>5.012775742795228</v>
+        <v>8.447720142322448</v>
       </c>
       <c r="K25">
-        <v>10.99247553437397</v>
+        <v>12.74163671278943</v>
       </c>
       <c r="L25">
-        <v>7.948954368670935</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>11.12326505741766</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.578700885658302</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.93688394560617</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.23101845228591</v>
+        <v>24.25223690364902</v>
       </c>
       <c r="C2">
-        <v>15.37580305826026</v>
+        <v>15.5372426285232</v>
       </c>
       <c r="D2">
-        <v>7.14711166798661</v>
+        <v>7.147710006686038</v>
       </c>
       <c r="E2">
-        <v>8.534291651233247</v>
+        <v>8.394715725947249</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21.51725198485778</v>
+        <v>20.18815304659518</v>
       </c>
       <c r="H2">
-        <v>1.639507465066585</v>
+        <v>1.675216414672958</v>
       </c>
       <c r="I2">
-        <v>2.569195779030785</v>
+        <v>2.620563750632773</v>
       </c>
       <c r="J2">
-        <v>8.481568037594087</v>
+        <v>8.91583316119268</v>
       </c>
       <c r="K2">
-        <v>13.0690015903862</v>
+        <v>12.72388326891542</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.15353003108379</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.651609950461078</v>
       </c>
       <c r="N2">
-        <v>8.105190064903912</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.173583645119532</v>
       </c>
       <c r="Q2">
-        <v>13.82573072551885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.533643264846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.63961799384512</v>
+        <v>22.66804601853737</v>
       </c>
       <c r="C3">
-        <v>14.66782702217147</v>
+        <v>14.72908195428354</v>
       </c>
       <c r="D3">
-        <v>6.657094638352147</v>
+        <v>6.658623303577406</v>
       </c>
       <c r="E3">
-        <v>8.428450554100836</v>
+        <v>8.30719394811771</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.97528160473691</v>
+        <v>19.73926874766043</v>
       </c>
       <c r="H3">
-        <v>1.686621595866433</v>
+        <v>1.635421464267211</v>
       </c>
       <c r="I3">
-        <v>2.539758571992724</v>
+        <v>2.474391717251812</v>
       </c>
       <c r="J3">
-        <v>8.499890064071648</v>
+        <v>8.914821660240584</v>
       </c>
       <c r="K3">
-        <v>13.2750920796308</v>
+        <v>12.94679929269752</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.35743949637929</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.810095301091619</v>
       </c>
       <c r="N3">
-        <v>7.772492238670199</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.843201994746822</v>
       </c>
       <c r="Q3">
-        <v>13.73468044419249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.47969081996207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.60256286629354</v>
+        <v>21.63563912223793</v>
       </c>
       <c r="C4">
-        <v>14.21756785995417</v>
+        <v>14.21417685263446</v>
       </c>
       <c r="D4">
-        <v>6.338902874589222</v>
+        <v>6.340937693945832</v>
       </c>
       <c r="E4">
-        <v>8.36124644117232</v>
+        <v>8.25143781338476</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20.65225231806216</v>
+        <v>19.4756431576757</v>
       </c>
       <c r="H4">
-        <v>1.81813726371062</v>
+        <v>1.757706814770189</v>
       </c>
       <c r="I4">
-        <v>2.647511316809452</v>
+        <v>2.570473384840851</v>
       </c>
       <c r="J4">
-        <v>8.515232098018039</v>
+        <v>8.915826291290591</v>
       </c>
       <c r="K4">
-        <v>13.40721929111171</v>
+        <v>13.08775233041301</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.48663586272308</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.928166585615036</v>
       </c>
       <c r="N4">
-        <v>7.561108350042421</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.633582245110378</v>
       </c>
       <c r="Q4">
-        <v>13.68708526329156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.45329830722046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.16469978178838</v>
+        <v>21.19973626717627</v>
       </c>
       <c r="C5">
-        <v>14.03993356697259</v>
+        <v>14.00953203062558</v>
       </c>
       <c r="D5">
-        <v>6.211788463990764</v>
+        <v>6.21337317235934</v>
       </c>
       <c r="E5">
-        <v>8.331496502470253</v>
+        <v>8.226506035569908</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>20.50677181123396</v>
+        <v>19.35505820579803</v>
       </c>
       <c r="H5">
-        <v>1.873136002635192</v>
+        <v>1.808870377123001</v>
       </c>
       <c r="I5">
-        <v>2.695564557556664</v>
+        <v>2.614444779199683</v>
       </c>
       <c r="J5">
-        <v>8.519837813428435</v>
+        <v>8.914138704327947</v>
       </c>
       <c r="K5">
-        <v>13.45709900296913</v>
+        <v>13.14123409238973</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.53541987978379</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.978847136074039</v>
       </c>
       <c r="N5">
-        <v>7.474031145962245</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.547284321389164</v>
       </c>
       <c r="Q5">
-        <v>13.66301020168829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.4377293393172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.09091390972915</v>
+        <v>21.12627815560479</v>
       </c>
       <c r="C6">
-        <v>14.0220119556723</v>
+        <v>13.98717715196174</v>
       </c>
       <c r="D6">
-        <v>6.192623980506504</v>
+        <v>6.194226286268885</v>
       </c>
       <c r="E6">
-        <v>8.324321137635492</v>
+        <v>8.220262429960421</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>20.46270248633401</v>
+        <v>19.31542495480036</v>
       </c>
       <c r="H6">
-        <v>1.88266679757622</v>
+        <v>1.817752896086867</v>
       </c>
       <c r="I6">
-        <v>2.707521071497748</v>
+        <v>2.626426730810338</v>
       </c>
       <c r="J6">
-        <v>8.517433941992387</v>
+        <v>8.910833689857265</v>
       </c>
       <c r="K6">
-        <v>13.45896673528258</v>
+        <v>13.14412191363186</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.53764195101227</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.98457574903082</v>
       </c>
       <c r="N6">
-        <v>7.460414284242822</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.533762817260624</v>
       </c>
       <c r="Q6">
-        <v>13.6509279175331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.42736463538634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.59628046231331</v>
+        <v>21.62916823369842</v>
       </c>
       <c r="C7">
-        <v>14.2469633970684</v>
+        <v>14.23771081857113</v>
       </c>
       <c r="D7">
-        <v>6.33705777463235</v>
+        <v>6.33904804398184</v>
       </c>
       <c r="E7">
-        <v>8.35489043172241</v>
+        <v>8.245294934268067</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20.59592096526775</v>
+        <v>19.50518615973791</v>
       </c>
       <c r="H7">
-        <v>1.819753524693549</v>
+        <v>1.759747230126536</v>
       </c>
       <c r="I7">
-        <v>2.658529447442498</v>
+        <v>2.583795571409844</v>
       </c>
       <c r="J7">
-        <v>8.506486612321842</v>
+        <v>8.8686486365958</v>
       </c>
       <c r="K7">
-        <v>13.39011756466427</v>
+        <v>13.06604766464332</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.465786242776</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.917044503724345</v>
       </c>
       <c r="N7">
-        <v>7.562484444275153</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.63428474216537</v>
       </c>
       <c r="Q7">
-        <v>13.66440801109026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.41924732617179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.69417318835119</v>
+        <v>23.71719707309351</v>
       </c>
       <c r="C8">
-        <v>15.17507070254632</v>
+        <v>15.28495676232949</v>
       </c>
       <c r="D8">
-        <v>6.981656550207789</v>
+        <v>6.982425141645332</v>
       </c>
       <c r="E8">
-        <v>8.490626766024834</v>
+        <v>8.357313770919957</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>21.25881042324211</v>
+        <v>20.23733641880975</v>
       </c>
       <c r="H8">
-        <v>1.569711998889942</v>
+        <v>1.608821876723038</v>
       </c>
       <c r="I8">
-        <v>2.516995620707202</v>
+        <v>2.573835569938045</v>
       </c>
       <c r="J8">
-        <v>8.475427859506665</v>
+        <v>8.777312207170992</v>
       </c>
       <c r="K8">
-        <v>13.11525921999753</v>
+        <v>12.7588269952213</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.18731293788024</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.675140319858476</v>
       </c>
       <c r="N8">
-        <v>7.995221762836405</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.062418164370737</v>
       </c>
       <c r="Q8">
-        <v>13.76337790240041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.44496151312285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.33582435244944</v>
+        <v>27.34154938981915</v>
       </c>
       <c r="C9">
-        <v>16.8139507410194</v>
+        <v>17.15210220731342</v>
       </c>
       <c r="D9">
-        <v>8.109669799787444</v>
+        <v>8.107642860801899</v>
       </c>
       <c r="E9">
-        <v>8.74959068143947</v>
+        <v>8.571468283662776</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.72380125778836</v>
+        <v>21.54191246403894</v>
       </c>
       <c r="H9">
-        <v>2.051395575418129</v>
+        <v>2.05599824883183</v>
       </c>
       <c r="I9">
-        <v>2.906491557829717</v>
+        <v>2.921886506403289</v>
       </c>
       <c r="J9">
-        <v>8.464276129854062</v>
+        <v>8.76466442150906</v>
       </c>
       <c r="K9">
-        <v>12.65490730769587</v>
+        <v>12.24024694657824</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.71800591338763</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.405858663457884</v>
       </c>
       <c r="N9">
-        <v>8.780165156361848</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.843039415124956</v>
       </c>
       <c r="Q9">
-        <v>14.06522198452032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.63472101135113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.72444122925678</v>
+        <v>29.71700308305318</v>
       </c>
       <c r="C10">
-        <v>18.04273169707526</v>
+        <v>18.49280965343667</v>
       </c>
       <c r="D10">
-        <v>8.856765901258683</v>
+        <v>8.851992410622968</v>
       </c>
       <c r="E10">
-        <v>8.840157929252118</v>
+        <v>8.638206019574783</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.58254213628668</v>
+        <v>22.76041602923214</v>
       </c>
       <c r="H10">
-        <v>2.375844187019776</v>
+        <v>2.354494758089601</v>
       </c>
       <c r="I10">
-        <v>3.177842427354423</v>
+        <v>3.163506748763741</v>
       </c>
       <c r="J10">
-        <v>8.433605584889365</v>
+        <v>8.514628483936578</v>
       </c>
       <c r="K10">
-        <v>12.26040557697404</v>
+        <v>11.77725523022908</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.32505805159989</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.229175131730013</v>
       </c>
       <c r="N10">
-        <v>9.185739622140719</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.242507198951612</v>
       </c>
       <c r="Q10">
-        <v>14.21932774831015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.64520292369314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.73325791091219</v>
+        <v>30.720218731258</v>
       </c>
       <c r="C11">
-        <v>19.44762265902365</v>
+        <v>19.79083589690102</v>
       </c>
       <c r="D11">
-        <v>9.175839967425798</v>
+        <v>9.169592718345033</v>
       </c>
       <c r="E11">
-        <v>8.372367499317802</v>
+        <v>8.223525973572036</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>21.92272093748154</v>
+        <v>22.22159759043353</v>
       </c>
       <c r="H11">
-        <v>3.162185255361837</v>
+        <v>3.137622109167653</v>
       </c>
       <c r="I11">
-        <v>3.266512728572351</v>
+        <v>3.241463054094628</v>
       </c>
       <c r="J11">
-        <v>8.054283193404551</v>
+        <v>7.807586957872554</v>
       </c>
       <c r="K11">
-        <v>11.40821354525384</v>
+        <v>10.99776480591697</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.815349841517834</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.598157373905525</v>
       </c>
       <c r="N11">
-        <v>8.245767613195962</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.283698607660698</v>
       </c>
       <c r="Q11">
-        <v>13.38485087831866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.74794019345851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.1014496631022</v>
+        <v>31.08679054671383</v>
       </c>
       <c r="C12">
-        <v>20.36432864456259</v>
+        <v>20.60304267801077</v>
       </c>
       <c r="D12">
-        <v>9.293036514488696</v>
+        <v>9.286301963750789</v>
       </c>
       <c r="E12">
-        <v>8.330115281914011</v>
+        <v>8.218924732301501</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>20.38254617628382</v>
+        <v>21.28454611513034</v>
       </c>
       <c r="H12">
-        <v>4.349265250037694</v>
+        <v>4.329807988562994</v>
       </c>
       <c r="I12">
-        <v>3.28511194909011</v>
+        <v>3.256224198326427</v>
       </c>
       <c r="J12">
-        <v>7.751160682512846</v>
+        <v>7.439610023687158</v>
       </c>
       <c r="K12">
-        <v>10.85290784458992</v>
+        <v>10.54200849169665</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.554619885347519</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.163732841494226</v>
       </c>
       <c r="N12">
-        <v>7.392219709376348</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.416967288398467</v>
       </c>
       <c r="Q12">
-        <v>12.66934026383993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.05512353091186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.0112350011184</v>
+        <v>30.99822683193718</v>
       </c>
       <c r="C13">
-        <v>21.0211851194703</v>
+        <v>21.16271415806268</v>
       </c>
       <c r="D13">
-        <v>9.26546378393448</v>
+        <v>9.259127106544005</v>
       </c>
       <c r="E13">
-        <v>8.600150517326759</v>
+        <v>8.516488823989578</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>18.72894762018532</v>
+        <v>19.67990695251801</v>
       </c>
       <c r="H13">
-        <v>5.628937650469213</v>
+        <v>5.615570304527293</v>
       </c>
       <c r="I13">
-        <v>3.254547754166</v>
+        <v>3.229146286052597</v>
       </c>
       <c r="J13">
-        <v>7.475231952335022</v>
+        <v>7.312836702915816</v>
       </c>
       <c r="K13">
-        <v>10.48003949608001</v>
+        <v>10.28884550111365</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.426282385864578</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.865506367843409</v>
       </c>
       <c r="N13">
-        <v>6.554947619045917</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.571307498333553</v>
       </c>
       <c r="Q13">
-        <v>11.96388701966215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.46824749774936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.73947825009168</v>
+        <v>30.72904259706244</v>
       </c>
       <c r="C14">
-        <v>21.38066049340769</v>
+        <v>21.45590883443032</v>
       </c>
       <c r="D14">
-        <v>9.180334365717863</v>
+        <v>9.174658847745706</v>
       </c>
       <c r="E14">
-        <v>8.96049509998768</v>
+        <v>8.889718357638056</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>17.49458289485425</v>
+        <v>18.23470233425056</v>
       </c>
       <c r="H14">
-        <v>6.55635923832109</v>
+        <v>6.546884132429449</v>
       </c>
       <c r="I14">
-        <v>3.212136968686923</v>
+        <v>3.192738890252349</v>
       </c>
       <c r="J14">
-        <v>7.294560702114722</v>
+        <v>7.310730923899467</v>
       </c>
       <c r="K14">
-        <v>10.31683800980485</v>
+        <v>10.20419375023484</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.386798542786332</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.733903739655814</v>
       </c>
       <c r="N14">
-        <v>5.991410274806943</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.00440058858315</v>
       </c>
       <c r="Q14">
-        <v>11.4716714827143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.09823951926714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.57382466758662</v>
+        <v>30.56471848315204</v>
       </c>
       <c r="C15">
-        <v>21.422730645622</v>
+        <v>21.48312842443881</v>
       </c>
       <c r="D15">
-        <v>9.128301519315997</v>
+        <v>9.122969691958215</v>
       </c>
       <c r="E15">
-        <v>9.062778119683175</v>
+        <v>8.995276808299831</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>17.15383759118117</v>
+        <v>17.73862929233507</v>
       </c>
       <c r="H15">
-        <v>6.76743254185384</v>
+        <v>6.759227112859584</v>
       </c>
       <c r="I15">
-        <v>3.192041616026727</v>
+        <v>3.176195469958956</v>
       </c>
       <c r="J15">
-        <v>7.254379727395112</v>
+        <v>7.345958543076517</v>
       </c>
       <c r="K15">
-        <v>10.3066495249235</v>
+        <v>10.21269603766487</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.390867577503837</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.726775720330999</v>
       </c>
       <c r="N15">
-        <v>5.855084828844589</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.868313611318857</v>
       </c>
       <c r="Q15">
-        <v>11.3488971707355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.02170483534706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.61419995353761</v>
+        <v>29.61172176292772</v>
       </c>
       <c r="C16">
-        <v>20.84236704858647</v>
+        <v>20.91601171886511</v>
       </c>
       <c r="D16">
-        <v>8.826731188514463</v>
+        <v>8.823055843181344</v>
       </c>
       <c r="E16">
-        <v>8.95599812825543</v>
+        <v>8.898460264574734</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>17.00327944967699</v>
+        <v>16.7383545540843</v>
       </c>
       <c r="H16">
-        <v>6.496915962926736</v>
+        <v>6.493198790173789</v>
       </c>
       <c r="I16">
-        <v>3.083729060700778</v>
+        <v>3.08370685267952</v>
       </c>
       <c r="J16">
-        <v>7.318977671763142</v>
+        <v>7.694265815809513</v>
       </c>
       <c r="K16">
-        <v>10.55774830789882</v>
+        <v>10.47102085442655</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.517737792105681</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.941086731557217</v>
       </c>
       <c r="N16">
-        <v>5.81703798329858</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.839302040938269</v>
       </c>
       <c r="Q16">
-        <v>11.40236147152573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.2081468717733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.01264411730505</v>
+        <v>29.01367871560769</v>
       </c>
       <c r="C17">
-        <v>20.18814755016852</v>
+        <v>20.30102386143467</v>
       </c>
       <c r="D17">
-        <v>8.637885774993558</v>
+        <v>8.635028520104026</v>
       </c>
       <c r="E17">
-        <v>8.653104002973869</v>
+        <v>8.595448254592821</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>17.5659219344521</v>
+        <v>16.88485146293715</v>
       </c>
       <c r="H17">
-        <v>5.747919390117036</v>
+        <v>5.746376641216633</v>
       </c>
       <c r="I17">
-        <v>3.023313692950556</v>
+        <v>3.031857760024643</v>
       </c>
       <c r="J17">
-        <v>7.463384776213104</v>
+        <v>7.946760674643548</v>
       </c>
       <c r="K17">
-        <v>10.82531570834394</v>
+        <v>10.71405517829653</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.65399044424319</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.155047265680727</v>
       </c>
       <c r="N17">
-        <v>6.084346688537096</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.114402014454305</v>
       </c>
       <c r="Q17">
-        <v>11.70542324066266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.53487735108686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.66602041028745</v>
+        <v>28.66848453630414</v>
       </c>
       <c r="C18">
-        <v>19.38391883486722</v>
+        <v>19.57131196442786</v>
       </c>
       <c r="D18">
-        <v>8.528649074788946</v>
+        <v>8.526104767196573</v>
       </c>
       <c r="E18">
-        <v>8.305267234841578</v>
+        <v>8.232779595699011</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>18.83362967908047</v>
+        <v>17.88626327899966</v>
       </c>
       <c r="H18">
-        <v>4.540294315623429</v>
+        <v>4.539636387381694</v>
       </c>
       <c r="I18">
-        <v>2.995988648734641</v>
+        <v>3.006949352819954</v>
       </c>
       <c r="J18">
-        <v>7.699973654283646</v>
+        <v>8.200372057033311</v>
       </c>
       <c r="K18">
-        <v>11.18481237467698</v>
+        <v>11.01711635838842</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.846480248187204</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.424152782738446</v>
       </c>
       <c r="N18">
-        <v>6.688408946079353</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.727115333368612</v>
       </c>
       <c r="Q18">
-        <v>12.27276949520704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.05967126266165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.55570746245544</v>
+        <v>28.55779026363103</v>
       </c>
       <c r="C19">
-        <v>18.59584658605358</v>
+        <v>18.87935190227633</v>
       </c>
       <c r="D19">
-        <v>8.492977838553859</v>
+        <v>8.490348373548704</v>
       </c>
       <c r="E19">
-        <v>8.216270627669516</v>
+        <v>8.107334951404534</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>20.47148439671901</v>
+        <v>19.32429837235813</v>
       </c>
       <c r="H19">
-        <v>3.205098490128683</v>
+        <v>3.203643107233103</v>
       </c>
       <c r="I19">
-        <v>3.008794256636023</v>
+        <v>3.019335843017001</v>
       </c>
       <c r="J19">
-        <v>7.98287188203228</v>
+        <v>8.449623280783971</v>
       </c>
       <c r="K19">
-        <v>11.62673320912786</v>
+        <v>11.37316567090157</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.08563902540232</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.742497670104621</v>
       </c>
       <c r="N19">
-        <v>7.565377633589911</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.613457419778284</v>
       </c>
       <c r="Q19">
-        <v>12.97837948160653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.68284703903269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.11507071824764</v>
+        <v>29.11172069879588</v>
       </c>
       <c r="C20">
-        <v>17.81477576686694</v>
+        <v>18.2525325913085</v>
       </c>
       <c r="D20">
-        <v>8.6657805295069</v>
+        <v>8.66196824231297</v>
       </c>
       <c r="E20">
-        <v>8.796685494583345</v>
+        <v>8.602866979569407</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.19501377719018</v>
+        <v>22.0108657226732</v>
       </c>
       <c r="H20">
-        <v>2.288019377208034</v>
+        <v>2.274828944407201</v>
       </c>
       <c r="I20">
-        <v>3.116791879168748</v>
+        <v>3.11491519293939</v>
       </c>
       <c r="J20">
-        <v>8.41146917203389</v>
+        <v>8.685505199515415</v>
       </c>
       <c r="K20">
-        <v>12.30258488381586</v>
+        <v>11.86626620165387</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.40506621700197</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.240639201634551</v>
       </c>
       <c r="N20">
-        <v>9.081945287826292</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.141629475112689</v>
       </c>
       <c r="Q20">
-        <v>14.1053558760072</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.61579636692404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.86251537886001</v>
+        <v>30.8457619423197</v>
       </c>
       <c r="C21">
-        <v>18.56270667350856</v>
+        <v>19.01506775915341</v>
       </c>
       <c r="D21">
-        <v>9.214572067809994</v>
+        <v>9.207418557704605</v>
       </c>
       <c r="E21">
-        <v>9.001319074842414</v>
+        <v>8.777092170295765</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>24.25861262264902</v>
+        <v>24.72680038935281</v>
       </c>
       <c r="H21">
-        <v>2.548248093663533</v>
+        <v>2.508058777198882</v>
       </c>
       <c r="I21">
-        <v>3.326541670068187</v>
+        <v>3.294324911755015</v>
       </c>
       <c r="J21">
-        <v>8.465716636412949</v>
+        <v>7.913677164279119</v>
       </c>
       <c r="K21">
-        <v>12.14529014224377</v>
+        <v>11.51620289267906</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.11820986759147</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.132692958224347</v>
       </c>
       <c r="N21">
-        <v>9.584873732969386</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.633780239586432</v>
       </c>
       <c r="Q21">
-        <v>14.41172863300319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.56580904384723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.95329642300963</v>
+        <v>31.92784466704842</v>
       </c>
       <c r="C22">
-        <v>19.0518882595383</v>
+        <v>19.50206061984712</v>
       </c>
       <c r="D22">
-        <v>9.558874225062713</v>
+        <v>9.549405395716661</v>
       </c>
       <c r="E22">
-        <v>9.095642810964263</v>
+        <v>8.857002210763175</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>24.89729584625279</v>
+        <v>26.53774820367718</v>
       </c>
       <c r="H22">
-        <v>2.71005146105589</v>
+        <v>2.652779783324853</v>
       </c>
       <c r="I22">
-        <v>3.455784775920544</v>
+        <v>3.40309219714816</v>
       </c>
       <c r="J22">
-        <v>8.496007172626998</v>
+        <v>7.425066700766027</v>
       </c>
       <c r="K22">
-        <v>12.03347149637487</v>
+        <v>11.26984547742452</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.926673030869427</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.059680742591144</v>
       </c>
       <c r="N22">
-        <v>9.834606782747159</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.875750268628</v>
       </c>
       <c r="Q22">
-        <v>14.59510894703115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.50299824764919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.37612856868885</v>
+        <v>31.35565914594079</v>
       </c>
       <c r="C23">
-        <v>18.76198620247628</v>
+        <v>19.22494174035803</v>
       </c>
       <c r="D23">
-        <v>9.376479181761397</v>
+        <v>9.368376355451243</v>
       </c>
       <c r="E23">
-        <v>9.051563808660864</v>
+        <v>8.819750307805732</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.60968772973627</v>
+        <v>25.42849337443147</v>
       </c>
       <c r="H23">
-        <v>2.624708086982737</v>
+        <v>2.577286217570639</v>
       </c>
       <c r="I23">
-        <v>3.38339156574995</v>
+        <v>3.341053642196946</v>
       </c>
       <c r="J23">
-        <v>8.489429759151577</v>
+        <v>7.76255044220344</v>
       </c>
       <c r="K23">
-        <v>12.11399513898763</v>
+        <v>11.43441590044525</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.04729055520141</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.13027020398394</v>
       </c>
       <c r="N23">
-        <v>9.699573369435674</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.746059104745147</v>
       </c>
       <c r="Q23">
-        <v>14.52075395776563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.58991128539357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.08793647788867</v>
+        <v>29.08457263326279</v>
       </c>
       <c r="C24">
-        <v>17.67807451838191</v>
+        <v>18.12423586728427</v>
       </c>
       <c r="D24">
-        <v>8.657008174329647</v>
+        <v>8.653193290767938</v>
       </c>
       <c r="E24">
-        <v>8.871782812283897</v>
+        <v>8.671255740863357</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.44812618968886</v>
+        <v>22.22995025791163</v>
       </c>
       <c r="H24">
-        <v>2.294063963265491</v>
+        <v>2.280810932867849</v>
       </c>
       <c r="I24">
-        <v>3.11071075845907</v>
+        <v>3.106704705437027</v>
       </c>
       <c r="J24">
-        <v>8.458916621937968</v>
+        <v>8.732274733241004</v>
       </c>
       <c r="K24">
-        <v>12.40021989465196</v>
+        <v>11.94891182436041</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.46088787023243</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.312668794461197</v>
       </c>
       <c r="N24">
-        <v>9.176165589220533</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.237122371424519</v>
       </c>
       <c r="Q24">
-        <v>14.21971702206201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.72119154537552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.4002589507717</v>
+        <v>26.41085057964017</v>
       </c>
       <c r="C25">
-        <v>16.43613087840051</v>
+        <v>16.72274677832478</v>
       </c>
       <c r="D25">
-        <v>7.818797582970359</v>
+        <v>7.81767670261401</v>
       </c>
       <c r="E25">
-        <v>8.671398874695607</v>
+        <v>8.506136360620095</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.23025699351445</v>
+        <v>20.97802527526964</v>
       </c>
       <c r="H25">
-        <v>1.923279377855044</v>
+        <v>1.937655703955967</v>
       </c>
       <c r="I25">
-        <v>2.808452091565203</v>
+        <v>2.837140229585706</v>
       </c>
       <c r="J25">
-        <v>8.447720142322448</v>
+        <v>8.806248081977895</v>
       </c>
       <c r="K25">
-        <v>12.74163671278943</v>
+        <v>12.35617677866605</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.82631361486334</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.44205722826038</v>
       </c>
       <c r="N25">
-        <v>8.578700885658302</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.643088493154684</v>
       </c>
       <c r="Q25">
-        <v>13.93688394560617</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.55708501206913</v>
       </c>
     </row>
   </sheetData>
